--- a/myCpps_2021/USACO2020DecGoldProb3SquarePasture/USACO2020DecSilverRectangularPasture.xlsx
+++ b/myCpps_2021/USACO2020DecGoldProb3SquarePasture/USACO2020DecSilverRectangularPasture.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\competitive-programming\myCpps_2021\USACO2020DecGoldProb3SquarePasture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640BABC5-CB3D-4C49-A228-C982E7F31232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F93F2C8-3FF2-4E34-A345-89330C4F6017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="37220" windowHeight="21820" firstSheet="1" activeTab="4" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" firstSheet="1" activeTab="1" xr2:uid="{0B4B5404-994F-4AB5-BBE6-747CC6A3C998}"/>
   </bookViews>
   <sheets>
     <sheet name="SilverPro2.Rectangular Pasture" sheetId="1" r:id="rId1"/>
     <sheet name="GoldPro3.SquarePasture" sheetId="2" r:id="rId2"/>
-    <sheet name="GoldPro3.SquarePasture2" sheetId="5" r:id="rId3"/>
-    <sheet name="Silver Pro3. Stuck in a Rut" sheetId="4" r:id="rId4"/>
-    <sheet name="Silver Pro2. Rectangular Pastur" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="GoldPro3.SquarePasture2" sheetId="5" r:id="rId5"/>
+    <sheet name="Silver Pro3. Stuck in a Rut" sheetId="4" r:id="rId6"/>
+    <sheet name="Silver Pro2. Rectangular Pastur" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>起</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -108,12 +110,16 @@
 Problem 3. Stuck in a Rut</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>旋转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +261,13 @@
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -444,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,6 +635,30 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -632,15 +669,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4262,17 +4290,78 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>72903</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>124924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177678</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>82428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7370B32F-6CB5-4A34-9462-33EAFFC394E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="3004038" y="9495692"/>
+          <a:ext cx="1737947" cy="1592141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>2087</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>193388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4288,8 +4377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2086042" y="7256318"/>
-          <a:ext cx="2018367" cy="591706"/>
+          <a:off x="2156202" y="1773115"/>
+          <a:ext cx="2122721" cy="596369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4334,13 +4423,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>2890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4392,13 +4481,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>3628</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4450,13 +4539,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>14432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>187613</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4506,13 +4595,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4124</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>6433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4124</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>179284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4562,13 +4651,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>2087</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>193388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4630,13 +4719,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>181646</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>6519</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4688,13 +4777,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>94343</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>192315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>145144</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4746,13 +4835,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>46098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4802,13 +4891,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>48655</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4858,13 +4947,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>201682</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>10050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>199595</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>7927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4926,13 +5015,13 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>2087</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>193388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4994,13 +5083,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>123372</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>192315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>174389</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>2890</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5052,13 +5141,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>83457</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>192314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>134258</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>195942</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5110,13 +5199,13 @@
     <xdr:from>
       <xdr:col>57</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>46098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5166,13 +5255,13 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>48655</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5222,13 +5311,13 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>3244</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>2807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>1157</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>185061</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5290,13 +5379,13 @@
     <xdr:from>
       <xdr:col>82</xdr:col>
       <xdr:colOff>2087</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>92</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>193388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5358,13 +5447,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>123372</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>195933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>95</xdr:col>
       <xdr:colOff>174389</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>6508</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5416,13 +5505,13 @@
     <xdr:from>
       <xdr:col>73</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>95</xdr:col>
       <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>3628</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5474,13 +5563,13 @@
     <xdr:from>
       <xdr:col>81</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>81</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>46098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5530,13 +5619,13 @@
     <xdr:from>
       <xdr:col>92</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>92</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>48655</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5586,13 +5675,13 @@
     <xdr:from>
       <xdr:col>82</xdr:col>
       <xdr:colOff>3244</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>10070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>92</xdr:col>
       <xdr:colOff>1157</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>192324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5654,13 +5743,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>72572</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>148772</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5716,13 +5805,13 @@
     <xdr:from>
       <xdr:col>106</xdr:col>
       <xdr:colOff>2087</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>116</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>193388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5784,13 +5873,13 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>108858</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>195933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>119</xdr:col>
       <xdr:colOff>159875</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>6508</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5842,13 +5931,13 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>188686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>119</xdr:col>
       <xdr:colOff>105229</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>192314</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5900,13 +5989,13 @@
     <xdr:from>
       <xdr:col>105</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>105</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>46098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5956,13 +6045,13 @@
     <xdr:from>
       <xdr:col>116</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>116</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>48655</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6012,13 +6101,13 @@
     <xdr:from>
       <xdr:col>106</xdr:col>
       <xdr:colOff>3244</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>13705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>116</xdr:col>
       <xdr:colOff>1157</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>16</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6080,13 +6169,13 @@
     <xdr:from>
       <xdr:col>129</xdr:col>
       <xdr:colOff>2087</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>139</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>193388</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6148,13 +6237,13 @@
     <xdr:from>
       <xdr:col>120</xdr:col>
       <xdr:colOff>187439</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>191966</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>143</xdr:col>
       <xdr:colOff>36050</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6206,13 +6295,13 @@
     <xdr:from>
       <xdr:col>128</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>128</xdr:col>
       <xdr:colOff>199571</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>46098</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6262,13 +6351,13 @@
     <xdr:from>
       <xdr:col>139</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>139</xdr:col>
       <xdr:colOff>7753</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>48655</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6318,13 +6407,13 @@
     <xdr:from>
       <xdr:col>129</xdr:col>
       <xdr:colOff>7211</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>139</xdr:col>
       <xdr:colOff>5124</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3642</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6386,13 +6475,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>134259</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6449,13 +6538,13 @@
     <xdr:from>
       <xdr:col>120</xdr:col>
       <xdr:colOff>200933</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>197522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>143</xdr:col>
       <xdr:colOff>49544</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>8096</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6503,10 +6592,1091 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>125657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC665D0-71A4-466D-A376-9675AA1D9130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="2795221" y="6855436"/>
+          <a:ext cx="1948962" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212480</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1EE138-852F-4A76-8CE4-012E7C285E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="637442" y="7700596"/>
+          <a:ext cx="908539" cy="432289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="34902"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>218341</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>189035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C297ABA-E09D-4FEE-9597-8A1ECC27165F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="643303" y="7706458"/>
+          <a:ext cx="880697" cy="822081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>175847</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>21982</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>125657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矩形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089D3265-E1C4-4DF4-AE43-DC2A4165DF7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3604847" y="8176846"/>
+          <a:ext cx="908539" cy="455369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="45098"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>197825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="箭头: 右 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934E5B2E-A5B4-4BBB-B6ED-31DED06ADA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2264019" y="7693268"/>
+          <a:ext cx="534865" cy="219807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>49823</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E87F66-CDE1-4EBF-B527-E8F47A81E987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3660530" y="7748954"/>
+          <a:ext cx="880697" cy="845527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7F09E5-0B06-4F11-B0FE-3CB7CC0CFA1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5267325" y="7000875"/>
+          <a:ext cx="4438650" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212480</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矩形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F79322-6330-4508-8A59-64757735004D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="637442" y="10074519"/>
+          <a:ext cx="908539" cy="813289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="34902"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203688</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>73268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="矩形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D8C03A-5849-49A6-A050-C70EE8385C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3632688" y="10043746"/>
+          <a:ext cx="866043" cy="910003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>109904</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>197825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="箭头: 右 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE74884-B8F5-45D8-9C2D-B5F98E291CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2264019" y="7693268"/>
+          <a:ext cx="534865" cy="219807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238857</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13189</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB529A7-DDBF-43C7-936C-F1684094E83F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="663819" y="10067192"/>
+          <a:ext cx="866043" cy="849923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="图片 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3D0582-0B98-4FE9-B1DA-8CE6D0C73029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="9401175"/>
+          <a:ext cx="4229100" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9981538-9CE1-43C4-822E-73C4EAA4307B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4857750" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180A887F-72E3-4EED-B5EA-6A0CC0A897B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5334000" y="200025"/>
+          <a:ext cx="4657725" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1A5E1A-E59E-46F9-8E8D-42CB6BE4DA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10668000" y="200025"/>
+          <a:ext cx="4657725" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C59577-3A8F-4A00-A3A7-64AE0FA16A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16002000" y="200025"/>
+          <a:ext cx="4657725" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1364D1-610F-40F1-9CAC-9E1C53767E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="21336000" y="200025"/>
+          <a:ext cx="4657725" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7903,7 +9073,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9504,7 +10674,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9603,8 +10773,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3476336" y="2668270"/>
-          <a:ext cx="4012623" cy="213475"/>
+          <a:off x="3703638" y="2584926"/>
+          <a:ext cx="4272756" cy="205899"/>
           <a:chOff x="3510280" y="2222500"/>
           <a:chExt cx="4020820" cy="215900"/>
         </a:xfrm>
@@ -9726,8 +10896,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3491576" y="797913"/>
-          <a:ext cx="4012623" cy="213475"/>
+          <a:off x="3718878" y="775183"/>
+          <a:ext cx="4272756" cy="205898"/>
           <a:chOff x="3510280" y="2222500"/>
           <a:chExt cx="4020820" cy="215900"/>
         </a:xfrm>
@@ -9849,8 +11019,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3476336" y="5941406"/>
-          <a:ext cx="4012623" cy="213476"/>
+          <a:off x="3703638" y="5751989"/>
+          <a:ext cx="4272756" cy="205899"/>
           <a:chOff x="3510280" y="2222500"/>
           <a:chExt cx="4020820" cy="215900"/>
         </a:xfrm>
@@ -9972,8 +11142,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3491576" y="4071050"/>
-          <a:ext cx="4012623" cy="213474"/>
+          <a:off x="3718878" y="3942246"/>
+          <a:ext cx="4272756" cy="205898"/>
           <a:chOff x="3510280" y="2222500"/>
           <a:chExt cx="4020820" cy="215900"/>
         </a:xfrm>
@@ -10562,17 +11732,17 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.07421875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="4.69140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="2.4609375" style="12"/>
-    <col min="8" max="8" width="3.23046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="2.4609375" style="12"/>
-    <col min="14" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="3.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="4.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" style="12"/>
+    <col min="8" max="8" width="3.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="2.44140625" style="12"/>
+    <col min="14" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="3" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O3" s="1">
         <v>11</v>
       </c>
@@ -10658,7 +11828,7 @@
       <c r="CN3" s="2"/>
       <c r="CO3" s="2"/>
     </row>
-    <row r="4" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="4" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O4" s="1">
         <v>10</v>
       </c>
@@ -10744,7 +11914,7 @@
       <c r="CN4" s="2"/>
       <c r="CO4" s="2"/>
     </row>
-    <row r="5" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="5" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O5" s="1">
         <v>9</v>
       </c>
@@ -10830,7 +12000,7 @@
       <c r="CN5" s="2"/>
       <c r="CO5" s="2"/>
     </row>
-    <row r="6" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="6" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O6" s="1">
         <v>8</v>
       </c>
@@ -10927,7 +12097,7 @@
       <c r="CN6" s="2"/>
       <c r="CO6" s="2"/>
     </row>
-    <row r="7" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="7" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O7" s="1">
         <v>7</v>
       </c>
@@ -11013,7 +12183,7 @@
       <c r="CN7" s="2"/>
       <c r="CO7" s="2"/>
     </row>
-    <row r="8" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="8" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O8" s="1">
         <v>6</v>
       </c>
@@ -11111,7 +12281,7 @@
       <c r="CN8" s="2"/>
       <c r="CO8" s="2"/>
     </row>
-    <row r="9" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="9" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O9" s="1">
         <v>5</v>
       </c>
@@ -11203,7 +12373,7 @@
       <c r="CN9" s="2"/>
       <c r="CO9" s="2"/>
     </row>
-    <row r="10" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="10" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O10" s="1">
         <v>4</v>
       </c>
@@ -11301,7 +12471,7 @@
       <c r="CN10" s="2"/>
       <c r="CO10" s="2"/>
     </row>
-    <row r="11" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="11" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O11" s="1">
         <v>3</v>
       </c>
@@ -11399,7 +12569,7 @@
       <c r="CN11" s="2"/>
       <c r="CO11" s="2"/>
     </row>
-    <row r="12" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="12" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O12" s="1">
         <v>2</v>
       </c>
@@ -11497,7 +12667,7 @@
       <c r="CN12" s="2"/>
       <c r="CO12" s="2"/>
     </row>
-    <row r="13" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="13" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O13" s="1">
         <v>1</v>
       </c>
@@ -11595,7 +12765,7 @@
       <c r="CN13" s="2"/>
       <c r="CO13" s="2"/>
     </row>
-    <row r="14" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="14" spans="15:93" x14ac:dyDescent="0.25">
       <c r="O14" s="1">
         <v>0</v>
       </c>
@@ -11693,7 +12863,7 @@
       <c r="CN14" s="2"/>
       <c r="CO14" s="2"/>
     </row>
-    <row r="15" spans="15:93" x14ac:dyDescent="0.35">
+    <row r="15" spans="15:93" x14ac:dyDescent="0.25">
       <c r="P15" s="1">
         <v>0</v>
       </c>
@@ -11893,7 +13063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O18" s="1">
         <v>9</v>
       </c>
@@ -11936,7 +13106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O19" s="1">
         <v>8</v>
       </c>
@@ -11976,7 +13146,7 @@
       <c r="AY19" s="28"/>
       <c r="AZ19" s="28"/>
     </row>
-    <row r="20" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="20" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O20" s="1">
         <v>7</v>
       </c>
@@ -12016,7 +13186,7 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="28"/>
     </row>
-    <row r="21" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O21" s="1">
         <v>6</v>
       </c>
@@ -12056,7 +13226,7 @@
       <c r="AY21" s="28"/>
       <c r="AZ21" s="28"/>
     </row>
-    <row r="22" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="22" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O22" s="1">
         <v>5</v>
       </c>
@@ -12096,7 +13266,7 @@
       <c r="AY22" s="28"/>
       <c r="AZ22" s="28"/>
     </row>
-    <row r="23" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="23" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O23" s="1">
         <v>4</v>
       </c>
@@ -12142,7 +13312,7 @@
       <c r="AY23" s="28"/>
       <c r="AZ23" s="28"/>
     </row>
-    <row r="24" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="24" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O24" s="1">
         <v>3</v>
       </c>
@@ -12186,7 +13356,7 @@
       <c r="AY24" s="28"/>
       <c r="AZ24" s="28"/>
     </row>
-    <row r="25" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="25" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O25" s="1">
         <v>2</v>
       </c>
@@ -12230,7 +13400,7 @@
       <c r="AY25" s="28"/>
       <c r="AZ25" s="28"/>
     </row>
-    <row r="26" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="26" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O26" s="1">
         <v>1</v>
       </c>
@@ -12276,7 +13446,7 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="28"/>
     </row>
-    <row r="27" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="27" spans="14:86" x14ac:dyDescent="0.25">
       <c r="O27" s="1">
         <v>0</v>
       </c>
@@ -12340,7 +13510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="28" spans="14:86" x14ac:dyDescent="0.25">
       <c r="P28" s="1">
         <v>0</v>
       </c>
@@ -12375,7 +13545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="30" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -12392,7 +13562,7 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
-    <row r="31" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="31" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="13"/>
@@ -12409,26 +13579,26 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
-    <row r="32" spans="14:86" x14ac:dyDescent="0.35">
+    <row r="32" spans="14:86" x14ac:dyDescent="0.25">
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
-      <c r="P32" s="59" t="s">
+      <c r="P32" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="11" t="s">
@@ -12458,7 +13628,7 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -12494,7 +13664,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
@@ -12534,7 +13704,7 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1">
         <v>2</v>
@@ -12570,7 +13740,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
         <v>3</v>
@@ -12604,7 +13774,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1">
         <v>4</v>
@@ -12638,7 +13808,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N39" s="12"/>
       <c r="O39" s="1">
         <v>5</v>
@@ -12657,7 +13827,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N40" s="12"/>
       <c r="O40" s="1">
         <v>4</v>
@@ -12678,7 +13848,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N41" s="12"/>
       <c r="O41" s="1">
         <v>3</v>
@@ -12699,7 +13869,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N42" s="12"/>
       <c r="O42" s="1">
         <v>2</v>
@@ -12720,7 +13890,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M43" s="15"/>
       <c r="N43" s="12"/>
       <c r="O43" s="1">
@@ -12744,7 +13914,7 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N44" s="12"/>
       <c r="O44" s="1">
         <v>0</v>
@@ -12763,7 +13933,7 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="P45" s="1">
         <v>0</v>
       </c>
@@ -12798,23 +13968,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O47" s="12"/>
-      <c r="P47" s="59" t="s">
+      <c r="P47" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
-      <c r="V47" s="60"/>
-      <c r="W47" s="60"/>
-      <c r="X47" s="60"/>
-      <c r="Y47" s="60"/>
-      <c r="Z47" s="60"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O48" s="1">
         <v>11</v>
       </c>
@@ -12830,7 +14000,7 @@
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
     </row>
-    <row r="49" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O49" s="1">
         <v>10</v>
       </c>
@@ -12846,7 +14016,7 @@
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
     </row>
-    <row r="50" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O50" s="1">
         <v>9</v>
       </c>
@@ -12862,7 +14032,7 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O51" s="1">
         <v>8</v>
       </c>
@@ -12878,7 +14048,7 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O52" s="1">
         <v>7</v>
       </c>
@@ -12894,7 +14064,7 @@
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
     </row>
-    <row r="53" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O53" s="1">
         <v>6</v>
       </c>
@@ -12910,7 +14080,7 @@
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
     </row>
-    <row r="54" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O54" s="1">
         <v>5</v>
       </c>
@@ -12926,7 +14096,7 @@
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
     </row>
-    <row r="55" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O55" s="1">
         <v>4</v>
       </c>
@@ -12944,7 +14114,7 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O56" s="1">
         <v>3</v>
       </c>
@@ -12962,7 +14132,7 @@
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
     </row>
-    <row r="57" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M57" s="15"/>
       <c r="O57" s="1">
         <v>2</v>
@@ -12983,7 +14153,7 @@
       </c>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O58" s="1">
         <v>1</v>
       </c>
@@ -13001,7 +14171,7 @@
       <c r="Y58" s="6"/>
       <c r="Z58" s="6"/>
     </row>
-    <row r="59" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O59" s="1">
         <v>0</v>
       </c>
@@ -13017,7 +14187,7 @@
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
     </row>
-    <row r="60" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="13:26" x14ac:dyDescent="0.25">
       <c r="P60" s="1">
         <v>0</v>
       </c>
@@ -13052,23 +14222,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O62" s="12"/>
-      <c r="P62" s="59" t="s">
+      <c r="P62" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="60"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="60"/>
-      <c r="V62" s="60"/>
-      <c r="W62" s="60"/>
-      <c r="X62" s="60"/>
-      <c r="Y62" s="60"/>
-      <c r="Z62" s="60"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="68"/>
+      <c r="V62" s="68"/>
+      <c r="W62" s="68"/>
+      <c r="X62" s="68"/>
+      <c r="Y62" s="68"/>
+      <c r="Z62" s="68"/>
     </row>
-    <row r="63" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O63" s="1">
         <v>11</v>
       </c>
@@ -13084,7 +14254,7 @@
       <c r="Y63" s="6"/>
       <c r="Z63" s="6"/>
     </row>
-    <row r="64" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O64" s="1">
         <v>10</v>
       </c>
@@ -13100,7 +14270,7 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O65" s="1">
         <v>9</v>
       </c>
@@ -13116,7 +14286,7 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O66" s="1">
         <v>8</v>
       </c>
@@ -13132,7 +14302,7 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O67" s="1">
         <v>7</v>
       </c>
@@ -13148,7 +14318,7 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O68" s="1">
         <v>6</v>
       </c>
@@ -13164,7 +14334,7 @@
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
     </row>
-    <row r="69" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O69" s="1">
         <v>5</v>
       </c>
@@ -13180,7 +14350,7 @@
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
     </row>
-    <row r="70" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O70" s="1">
         <v>4</v>
       </c>
@@ -13198,7 +14368,7 @@
       <c r="Y70" s="6"/>
       <c r="Z70" s="6"/>
     </row>
-    <row r="71" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O71" s="1">
         <v>3</v>
       </c>
@@ -13216,7 +14386,7 @@
       <c r="Y71" s="6"/>
       <c r="Z71" s="6"/>
     </row>
-    <row r="72" spans="12:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="L72" s="15"/>
       <c r="O72" s="1">
         <v>2</v>
@@ -13237,7 +14407,7 @@
       <c r="Y72" s="6"/>
       <c r="Z72" s="6"/>
     </row>
-    <row r="73" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O73" s="1">
         <v>1</v>
       </c>
@@ -13255,7 +14425,7 @@
       <c r="Y73" s="6"/>
       <c r="Z73" s="6"/>
     </row>
-    <row r="74" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O74" s="1">
         <v>0</v>
       </c>
@@ -13271,7 +14441,7 @@
       <c r="Y74" s="6"/>
       <c r="Z74" s="6"/>
     </row>
-    <row r="75" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="12:26" x14ac:dyDescent="0.25">
       <c r="P75" s="1">
         <v>0</v>
       </c>
@@ -13306,23 +14476,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O77" s="12"/>
-      <c r="P77" s="59" t="s">
+      <c r="P77" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="Q77" s="60"/>
-      <c r="R77" s="60"/>
-      <c r="S77" s="60"/>
-      <c r="T77" s="60"/>
-      <c r="U77" s="60"/>
-      <c r="V77" s="60"/>
-      <c r="W77" s="60"/>
-      <c r="X77" s="60"/>
-      <c r="Y77" s="60"/>
-      <c r="Z77" s="60"/>
+      <c r="Q77" s="68"/>
+      <c r="R77" s="68"/>
+      <c r="S77" s="68"/>
+      <c r="T77" s="68"/>
+      <c r="U77" s="68"/>
+      <c r="V77" s="68"/>
+      <c r="W77" s="68"/>
+      <c r="X77" s="68"/>
+      <c r="Y77" s="68"/>
+      <c r="Z77" s="68"/>
     </row>
-    <row r="78" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O78" s="1">
         <v>11</v>
       </c>
@@ -13338,7 +14508,7 @@
       <c r="Y78" s="6"/>
       <c r="Z78" s="6"/>
     </row>
-    <row r="79" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O79" s="1">
         <v>10</v>
       </c>
@@ -13354,7 +14524,7 @@
       <c r="Y79" s="6"/>
       <c r="Z79" s="6"/>
     </row>
-    <row r="80" spans="12:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="12:26" x14ac:dyDescent="0.25">
       <c r="O80" s="1">
         <v>9</v>
       </c>
@@ -13370,7 +14540,7 @@
       <c r="Y80" s="6"/>
       <c r="Z80" s="6"/>
     </row>
-    <row r="81" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O81" s="1">
         <v>8</v>
       </c>
@@ -13386,7 +14556,7 @@
       <c r="Y81" s="6"/>
       <c r="Z81" s="6"/>
     </row>
-    <row r="82" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O82" s="1">
         <v>7</v>
       </c>
@@ -13402,7 +14572,7 @@
       <c r="Y82" s="6"/>
       <c r="Z82" s="6"/>
     </row>
-    <row r="83" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O83" s="1">
         <v>6</v>
       </c>
@@ -13418,7 +14588,7 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="6"/>
     </row>
-    <row r="84" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O84" s="1">
         <v>5</v>
       </c>
@@ -13434,7 +14604,7 @@
       <c r="Y84" s="6"/>
       <c r="Z84" s="6"/>
     </row>
-    <row r="85" spans="13:26" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="13:26" ht="17.25" x14ac:dyDescent="0.25">
       <c r="M85" s="15"/>
       <c r="O85" s="1">
         <v>4</v>
@@ -13455,7 +14625,7 @@
       <c r="Y85" s="6"/>
       <c r="Z85" s="6"/>
     </row>
-    <row r="86" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O86" s="1">
         <v>3</v>
       </c>
@@ -13473,7 +14643,7 @@
       <c r="Y86" s="6"/>
       <c r="Z86" s="6"/>
     </row>
-    <row r="87" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O87" s="1">
         <v>2</v>
       </c>
@@ -13491,7 +14661,7 @@
       <c r="Y87" s="6"/>
       <c r="Z87" s="6"/>
     </row>
-    <row r="88" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O88" s="1">
         <v>1</v>
       </c>
@@ -13509,7 +14679,7 @@
       <c r="Y88" s="6"/>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="13:26" x14ac:dyDescent="0.25">
       <c r="O89" s="1">
         <v>0</v>
       </c>
@@ -13525,7 +14695,7 @@
       <c r="Y89" s="6"/>
       <c r="Z89" s="6"/>
     </row>
-    <row r="90" spans="13:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="13:26" x14ac:dyDescent="0.25">
       <c r="P90" s="1">
         <v>0</v>
       </c>
@@ -13576,325 +14746,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE08187-13D3-4A00-8554-61C8A3F85608}">
-  <dimension ref="A2:EL33"/>
+  <dimension ref="A1:EL56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA35" sqref="AA35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BC48" sqref="BC48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.4609375" style="12"/>
-    <col min="2" max="2" width="2.4609375" style="1"/>
-    <col min="3" max="3" width="2.765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="2.4609375" style="1" customWidth="1"/>
-    <col min="24" max="26" width="2.4609375" style="1"/>
-    <col min="27" max="27" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="50" width="2.4609375" style="1"/>
-    <col min="51" max="51" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="74" width="2.4609375" style="1"/>
-    <col min="75" max="75" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="98" width="2.4609375" style="1"/>
-    <col min="99" max="99" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="121" width="2.4609375" style="1"/>
-    <col min="122" max="122" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="12"/>
+    <col min="2" max="2" width="2.44140625" style="1"/>
+    <col min="3" max="3" width="2.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="2.44140625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="2.44140625" style="1"/>
+    <col min="27" max="27" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="50" width="2.44140625" style="1"/>
+    <col min="51" max="51" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="74" width="2.44140625" style="1"/>
+    <col min="75" max="75" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="98" width="2.44140625" style="1"/>
+    <col min="99" max="99" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="100" max="121" width="2.44140625" style="1"/>
+    <col min="122" max="122" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="B2" s="12"/>
-      <c r="C2" s="16">
+    <row r="1" spans="1:142" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:142" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="4" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+      <c r="C4" s="16">
         <v>19</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="16">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="16">
-        <v>19</v>
-      </c>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BV2" s="12"/>
-      <c r="BW2" s="16">
-        <v>19</v>
-      </c>
-      <c r="BX2" s="18"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="5"/>
-      <c r="CA2" s="5"/>
-      <c r="CB2" s="5"/>
-      <c r="CC2" s="5"/>
-      <c r="CD2" s="5"/>
-      <c r="CE2" s="5"/>
-      <c r="CF2" s="5"/>
-      <c r="CG2" s="5"/>
-      <c r="CH2" s="5"/>
-      <c r="CI2" s="5"/>
-      <c r="CJ2" s="5"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="5"/>
-      <c r="CM2" s="5"/>
-      <c r="CN2" s="5"/>
-      <c r="CO2" s="5"/>
-      <c r="CP2" s="5"/>
-      <c r="CQ2" s="5"/>
-      <c r="CT2" s="12"/>
-      <c r="CU2" s="16">
-        <v>19</v>
-      </c>
-      <c r="CV2" s="18"/>
-      <c r="CW2" s="2"/>
-      <c r="CX2" s="5"/>
-      <c r="CY2" s="5"/>
-      <c r="CZ2" s="5"/>
-      <c r="DA2" s="5"/>
-      <c r="DB2" s="5"/>
-      <c r="DC2" s="5"/>
-      <c r="DD2" s="5"/>
-      <c r="DE2" s="5"/>
-      <c r="DF2" s="5"/>
-      <c r="DG2" s="5"/>
-      <c r="DH2" s="5"/>
-      <c r="DI2" s="4"/>
-      <c r="DJ2" s="5"/>
-      <c r="DK2" s="5"/>
-      <c r="DL2" s="5"/>
-      <c r="DM2" s="5"/>
-      <c r="DN2" s="5"/>
-      <c r="DO2" s="5"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="16">
-        <v>19</v>
-      </c>
-      <c r="DS2" s="18"/>
-      <c r="DT2" s="2"/>
-      <c r="DU2" s="5"/>
-      <c r="DV2" s="5"/>
-      <c r="DW2" s="5"/>
-      <c r="DX2" s="5"/>
-      <c r="DY2" s="5"/>
-      <c r="DZ2" s="5"/>
-      <c r="EA2" s="5"/>
-      <c r="EB2" s="5"/>
-      <c r="EC2" s="5"/>
-      <c r="ED2" s="5"/>
-      <c r="EE2" s="5"/>
-      <c r="EF2" s="4"/>
-      <c r="EG2" s="5"/>
-      <c r="EH2" s="5"/>
-      <c r="EI2" s="5"/>
-      <c r="EJ2" s="5"/>
-      <c r="EK2" s="5"/>
-      <c r="EL2" s="5"/>
-    </row>
-    <row r="3" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="C3" s="16">
-        <v>18</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="AA3" s="16">
-        <v>18</v>
-      </c>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AY3" s="16">
-        <v>18</v>
-      </c>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BW3" s="16">
-        <v>18</v>
-      </c>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
-      <c r="CB3" s="5"/>
-      <c r="CC3" s="4"/>
-      <c r="CD3" s="5"/>
-      <c r="CE3" s="5"/>
-      <c r="CF3" s="5"/>
-      <c r="CG3" s="5"/>
-      <c r="CH3" s="5"/>
-      <c r="CI3" s="5"/>
-      <c r="CJ3" s="5"/>
-      <c r="CK3" s="5"/>
-      <c r="CL3" s="5"/>
-      <c r="CM3" s="5"/>
-      <c r="CN3" s="5"/>
-      <c r="CO3" s="5"/>
-      <c r="CP3" s="5"/>
-      <c r="CQ3" s="5"/>
-      <c r="CU3" s="16">
-        <v>18</v>
-      </c>
-      <c r="CV3" s="18"/>
-      <c r="CW3" s="5"/>
-      <c r="CX3" s="5"/>
-      <c r="CY3" s="5"/>
-      <c r="CZ3" s="5"/>
-      <c r="DA3" s="4"/>
-      <c r="DB3" s="5"/>
-      <c r="DC3" s="5"/>
-      <c r="DD3" s="5"/>
-      <c r="DE3" s="5"/>
-      <c r="DF3" s="5"/>
-      <c r="DG3" s="5"/>
-      <c r="DH3" s="5"/>
-      <c r="DI3" s="5"/>
-      <c r="DJ3" s="5"/>
-      <c r="DK3" s="5"/>
-      <c r="DL3" s="5"/>
-      <c r="DM3" s="5"/>
-      <c r="DN3" s="5"/>
-      <c r="DO3" s="5"/>
-      <c r="DR3" s="16">
-        <v>18</v>
-      </c>
-      <c r="DS3" s="18"/>
-      <c r="DT3" s="5"/>
-      <c r="DU3" s="5"/>
-      <c r="DV3" s="5"/>
-      <c r="DW3" s="5"/>
-      <c r="DX3" s="4"/>
-      <c r="DY3" s="5"/>
-      <c r="DZ3" s="5"/>
-      <c r="EA3" s="5"/>
-      <c r="EB3" s="5"/>
-      <c r="EC3" s="5"/>
-      <c r="ED3" s="5"/>
-      <c r="EE3" s="5"/>
-      <c r="EF3" s="5"/>
-      <c r="EG3" s="5"/>
-      <c r="EH3" s="5"/>
-      <c r="EI3" s="5"/>
-      <c r="EJ3" s="5"/>
-      <c r="EK3" s="5"/>
-      <c r="EL3" s="5"/>
-    </row>
-    <row r="4" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="C4" s="16">
-        <v>17</v>
-      </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -13904,20 +14797,21 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
+      <c r="Z4" s="12"/>
       <c r="AA4" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="5"/>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="4"/>
+      <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
@@ -13927,20 +14821,21 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
+      <c r="AO4" s="4"/>
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
       <c r="AU4" s="5"/>
+      <c r="AX4" s="12"/>
       <c r="AY4" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ4" s="18"/>
-      <c r="BA4" s="5"/>
+      <c r="BA4" s="2"/>
       <c r="BB4" s="5"/>
-      <c r="BC4" s="4"/>
+      <c r="BC4" s="5"/>
       <c r="BD4" s="5"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="5"/>
@@ -13950,20 +14845,21 @@
       <c r="BJ4" s="5"/>
       <c r="BK4" s="5"/>
       <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
+      <c r="BM4" s="4"/>
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
       <c r="BP4" s="5"/>
       <c r="BQ4" s="5"/>
       <c r="BR4" s="5"/>
       <c r="BS4" s="5"/>
+      <c r="BV4" s="12"/>
       <c r="BW4" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BX4" s="18"/>
-      <c r="BY4" s="5"/>
+      <c r="BY4" s="2"/>
       <c r="BZ4" s="5"/>
-      <c r="CA4" s="4"/>
+      <c r="CA4" s="5"/>
       <c r="CB4" s="5"/>
       <c r="CC4" s="5"/>
       <c r="CD4" s="5"/>
@@ -13973,20 +14869,21 @@
       <c r="CH4" s="5"/>
       <c r="CI4" s="5"/>
       <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
+      <c r="CK4" s="4"/>
       <c r="CL4" s="5"/>
       <c r="CM4" s="5"/>
       <c r="CN4" s="5"/>
       <c r="CO4" s="5"/>
       <c r="CP4" s="5"/>
       <c r="CQ4" s="5"/>
+      <c r="CT4" s="12"/>
       <c r="CU4" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CV4" s="18"/>
-      <c r="CW4" s="5"/>
+      <c r="CW4" s="2"/>
       <c r="CX4" s="5"/>
-      <c r="CY4" s="4"/>
+      <c r="CY4" s="5"/>
       <c r="CZ4" s="5"/>
       <c r="DA4" s="5"/>
       <c r="DB4" s="5"/>
@@ -13996,20 +14893,21 @@
       <c r="DF4" s="5"/>
       <c r="DG4" s="5"/>
       <c r="DH4" s="5"/>
-      <c r="DI4" s="5"/>
+      <c r="DI4" s="4"/>
       <c r="DJ4" s="5"/>
       <c r="DK4" s="5"/>
       <c r="DL4" s="5"/>
       <c r="DM4" s="5"/>
       <c r="DN4" s="5"/>
       <c r="DO4" s="5"/>
+      <c r="DQ4" s="12"/>
       <c r="DR4" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="DS4" s="18"/>
-      <c r="DT4" s="5"/>
+      <c r="DT4" s="2"/>
       <c r="DU4" s="5"/>
-      <c r="DV4" s="4"/>
+      <c r="DV4" s="5"/>
       <c r="DW4" s="5"/>
       <c r="DX4" s="5"/>
       <c r="DY4" s="5"/>
@@ -14019,7 +14917,7 @@
       <c r="EC4" s="5"/>
       <c r="ED4" s="5"/>
       <c r="EE4" s="5"/>
-      <c r="EF4" s="5"/>
+      <c r="EF4" s="4"/>
       <c r="EG4" s="5"/>
       <c r="EH4" s="5"/>
       <c r="EI4" s="5"/>
@@ -14027,22 +14925,24 @@
       <c r="EK4" s="5"/>
       <c r="EL4" s="5"/>
     </row>
-    <row r="5" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C5" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
@@ -14050,20 +14950,22 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="AA5" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="4"/>
+      <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
@@ -14071,20 +14973,22 @@
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>
       <c r="AY5" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ5" s="18"/>
-      <c r="BA5" s="4"/>
+      <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
       <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="5"/>
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
       <c r="BI5" s="5"/>
       <c r="BJ5" s="5"/>
       <c r="BK5" s="5"/>
       <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
       <c r="BN5" s="5"/>
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
@@ -14092,20 +14996,22 @@
       <c r="BR5" s="5"/>
       <c r="BS5" s="5"/>
       <c r="BW5" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BX5" s="18"/>
-      <c r="BY5" s="4"/>
+      <c r="BY5" s="5"/>
       <c r="BZ5" s="5"/>
       <c r="CA5" s="5"/>
       <c r="CB5" s="5"/>
-      <c r="CC5" s="5"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="5"/>
       <c r="CE5" s="5"/>
       <c r="CF5" s="5"/>
       <c r="CG5" s="5"/>
       <c r="CH5" s="5"/>
       <c r="CI5" s="5"/>
       <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
       <c r="CL5" s="5"/>
       <c r="CM5" s="5"/>
       <c r="CN5" s="5"/>
@@ -14113,20 +15019,22 @@
       <c r="CP5" s="5"/>
       <c r="CQ5" s="5"/>
       <c r="CU5" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CV5" s="18"/>
-      <c r="CW5" s="4"/>
+      <c r="CW5" s="5"/>
       <c r="CX5" s="5"/>
       <c r="CY5" s="5"/>
       <c r="CZ5" s="5"/>
-      <c r="DA5" s="5"/>
+      <c r="DA5" s="4"/>
+      <c r="DB5" s="5"/>
       <c r="DC5" s="5"/>
       <c r="DD5" s="5"/>
       <c r="DE5" s="5"/>
       <c r="DF5" s="5"/>
       <c r="DG5" s="5"/>
       <c r="DH5" s="5"/>
+      <c r="DI5" s="5"/>
       <c r="DJ5" s="5"/>
       <c r="DK5" s="5"/>
       <c r="DL5" s="5"/>
@@ -14134,20 +15042,22 @@
       <c r="DN5" s="5"/>
       <c r="DO5" s="5"/>
       <c r="DR5" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="DS5" s="18"/>
-      <c r="DT5" s="4"/>
+      <c r="DT5" s="5"/>
       <c r="DU5" s="5"/>
       <c r="DV5" s="5"/>
       <c r="DW5" s="5"/>
-      <c r="DX5" s="5"/>
+      <c r="DX5" s="4"/>
+      <c r="DY5" s="5"/>
       <c r="DZ5" s="5"/>
       <c r="EA5" s="5"/>
       <c r="EB5" s="5"/>
       <c r="EC5" s="5"/>
       <c r="ED5" s="5"/>
       <c r="EE5" s="5"/>
+      <c r="EF5" s="5"/>
       <c r="EG5" s="5"/>
       <c r="EH5" s="5"/>
       <c r="EI5" s="5"/>
@@ -14155,14 +15065,14 @@
       <c r="EK5" s="5"/>
       <c r="EL5" s="5"/>
     </row>
-    <row r="6" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C6" s="16">
-        <v>15</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -14180,12 +15090,12 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="AA6" s="16">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="AB6" s="18"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
+      <c r="AE6" s="4"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
@@ -14203,12 +15113,12 @@
       <c r="AT6" s="5"/>
       <c r="AU6" s="5"/>
       <c r="AY6" s="16">
-        <v>15</v>
-      </c>
-      <c r="AZ6" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="AZ6" s="18"/>
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
+      <c r="BC6" s="4"/>
       <c r="BD6" s="5"/>
       <c r="BE6" s="5"/>
       <c r="BF6" s="5"/>
@@ -14226,12 +15136,12 @@
       <c r="BR6" s="5"/>
       <c r="BS6" s="5"/>
       <c r="BW6" s="16">
-        <v>15</v>
-      </c>
-      <c r="BX6" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="BX6" s="18"/>
       <c r="BY6" s="5"/>
       <c r="BZ6" s="5"/>
-      <c r="CA6" s="5"/>
+      <c r="CA6" s="4"/>
       <c r="CB6" s="5"/>
       <c r="CC6" s="5"/>
       <c r="CD6" s="5"/>
@@ -14249,12 +15159,12 @@
       <c r="CP6" s="5"/>
       <c r="CQ6" s="5"/>
       <c r="CU6" s="16">
-        <v>15</v>
-      </c>
-      <c r="CV6" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="CV6" s="18"/>
       <c r="CW6" s="5"/>
       <c r="CX6" s="5"/>
-      <c r="CY6" s="5"/>
+      <c r="CY6" s="4"/>
       <c r="CZ6" s="5"/>
       <c r="DA6" s="5"/>
       <c r="DB6" s="5"/>
@@ -14272,12 +15182,12 @@
       <c r="DN6" s="5"/>
       <c r="DO6" s="5"/>
       <c r="DR6" s="16">
-        <v>15</v>
-      </c>
-      <c r="DS6" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="DS6" s="18"/>
       <c r="DT6" s="5"/>
       <c r="DU6" s="5"/>
-      <c r="DV6" s="5"/>
+      <c r="DV6" s="4"/>
       <c r="DW6" s="5"/>
       <c r="DX6" s="5"/>
       <c r="DY6" s="5"/>
@@ -14295,154 +15205,139 @@
       <c r="EK6" s="5"/>
       <c r="EL6" s="5"/>
     </row>
-    <row r="7" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="B7" s="26" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C7" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="AA7" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB7" s="18"/>
-      <c r="AC7" s="5"/>
+      <c r="AC7" s="4"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="19"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
       <c r="AU7" s="5"/>
       <c r="AY7" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ7" s="18"/>
-      <c r="BA7" s="5"/>
+      <c r="BA7" s="4"/>
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
       <c r="BD7" s="5"/>
       <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
       <c r="BG7" s="5"/>
       <c r="BH7" s="5"/>
       <c r="BI7" s="5"/>
       <c r="BJ7" s="5"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
       <c r="BN7" s="5"/>
-      <c r="BO7" s="19"/>
-      <c r="BP7" s="19"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
       <c r="BQ7" s="5"/>
       <c r="BR7" s="5"/>
       <c r="BS7" s="5"/>
       <c r="BW7" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BX7" s="18"/>
-      <c r="BY7" s="5"/>
+      <c r="BY7" s="4"/>
       <c r="BZ7" s="5"/>
       <c r="CA7" s="5"/>
       <c r="CB7" s="5"/>
       <c r="CC7" s="5"/>
-      <c r="CD7" s="5"/>
       <c r="CE7" s="5"/>
       <c r="CF7" s="5"/>
       <c r="CG7" s="5"/>
       <c r="CH7" s="5"/>
       <c r="CI7" s="5"/>
       <c r="CJ7" s="5"/>
-      <c r="CK7" s="5"/>
       <c r="CL7" s="5"/>
-      <c r="CM7" s="19"/>
-      <c r="CN7" s="19"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
       <c r="CO7" s="5"/>
       <c r="CP7" s="5"/>
       <c r="CQ7" s="5"/>
       <c r="CU7" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CV7" s="18"/>
-      <c r="CW7" s="5"/>
+      <c r="CW7" s="4"/>
       <c r="CX7" s="5"/>
       <c r="CY7" s="5"/>
       <c r="CZ7" s="5"/>
       <c r="DA7" s="5"/>
-      <c r="DB7" s="5"/>
       <c r="DC7" s="5"/>
       <c r="DD7" s="5"/>
       <c r="DE7" s="5"/>
       <c r="DF7" s="5"/>
       <c r="DG7" s="5"/>
       <c r="DH7" s="5"/>
-      <c r="DI7" s="5"/>
       <c r="DJ7" s="5"/>
-      <c r="DK7" s="19"/>
-      <c r="DL7" s="19"/>
+      <c r="DK7" s="5"/>
+      <c r="DL7" s="5"/>
       <c r="DM7" s="5"/>
       <c r="DN7" s="5"/>
       <c r="DO7" s="5"/>
       <c r="DR7" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DS7" s="18"/>
-      <c r="DT7" s="5"/>
+      <c r="DT7" s="4"/>
       <c r="DU7" s="5"/>
       <c r="DV7" s="5"/>
       <c r="DW7" s="5"/>
       <c r="DX7" s="5"/>
-      <c r="DY7" s="5"/>
       <c r="DZ7" s="5"/>
       <c r="EA7" s="5"/>
       <c r="EB7" s="5"/>
       <c r="EC7" s="5"/>
       <c r="ED7" s="5"/>
       <c r="EE7" s="5"/>
-      <c r="EF7" s="5"/>
       <c r="EG7" s="5"/>
-      <c r="EH7" s="19"/>
-      <c r="EI7" s="19"/>
+      <c r="EH7" s="5"/>
+      <c r="EI7" s="5"/>
       <c r="EJ7" s="5"/>
       <c r="EK7" s="5"/>
       <c r="EL7" s="5"/>
     </row>
-    <row r="8" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C8" s="16">
-        <v>13</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="D8" s="17"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -14456,18 +15351,16 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="U8" s="23"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="AA8" s="16">
-        <v>13</v>
-      </c>
-      <c r="AB8" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="AB8" s="17"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -14481,18 +15374,16 @@
       <c r="AM8" s="5"/>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS8" s="23"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
       <c r="AU8" s="5"/>
       <c r="AY8" s="16">
-        <v>13</v>
-      </c>
-      <c r="AZ8" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="AZ8" s="17"/>
       <c r="BA8" s="5"/>
       <c r="BB8" s="5"/>
       <c r="BC8" s="5"/>
@@ -14506,18 +15397,16 @@
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
-      <c r="BN8" s="20"/>
-      <c r="BO8" s="21"/>
-      <c r="BP8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="BQ8" s="23"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+      <c r="BQ8" s="5"/>
       <c r="BR8" s="5"/>
       <c r="BS8" s="5"/>
       <c r="BW8" s="16">
-        <v>13</v>
-      </c>
-      <c r="BX8" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="BX8" s="17"/>
       <c r="BY8" s="5"/>
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
@@ -14531,18 +15420,16 @@
       <c r="CI8" s="5"/>
       <c r="CJ8" s="5"/>
       <c r="CK8" s="5"/>
-      <c r="CL8" s="20"/>
-      <c r="CM8" s="21"/>
-      <c r="CN8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="CO8" s="23"/>
+      <c r="CL8" s="5"/>
+      <c r="CM8" s="5"/>
+      <c r="CN8" s="5"/>
+      <c r="CO8" s="5"/>
       <c r="CP8" s="5"/>
       <c r="CQ8" s="5"/>
       <c r="CU8" s="16">
-        <v>13</v>
-      </c>
-      <c r="CV8" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="CV8" s="17"/>
       <c r="CW8" s="5"/>
       <c r="CX8" s="5"/>
       <c r="CY8" s="5"/>
@@ -14556,18 +15443,16 @@
       <c r="DG8" s="5"/>
       <c r="DH8" s="5"/>
       <c r="DI8" s="5"/>
-      <c r="DJ8" s="20"/>
-      <c r="DK8" s="21"/>
-      <c r="DL8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="DM8" s="23"/>
+      <c r="DJ8" s="5"/>
+      <c r="DK8" s="5"/>
+      <c r="DL8" s="5"/>
+      <c r="DM8" s="5"/>
       <c r="DN8" s="5"/>
       <c r="DO8" s="5"/>
       <c r="DR8" s="16">
-        <v>13</v>
-      </c>
-      <c r="DS8" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="DS8" s="17"/>
       <c r="DT8" s="5"/>
       <c r="DU8" s="5"/>
       <c r="DV8" s="5"/>
@@ -14581,18 +15466,19 @@
       <c r="ED8" s="5"/>
       <c r="EE8" s="5"/>
       <c r="EF8" s="5"/>
-      <c r="EG8" s="20"/>
-      <c r="EH8" s="21"/>
-      <c r="EI8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="EJ8" s="23"/>
+      <c r="EG8" s="5"/>
+      <c r="EH8" s="5"/>
+      <c r="EI8" s="5"/>
+      <c r="EJ8" s="5"/>
       <c r="EK8" s="5"/>
       <c r="EL8" s="5"/>
     </row>
-    <row r="9" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="5"/>
@@ -14608,14 +15494,14 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="23"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="AA9" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB9" s="18"/>
       <c r="AC9" s="5"/>
@@ -14631,14 +15517,14 @@
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="23"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="5"/>
       <c r="AT9" s="5"/>
       <c r="AU9" s="5"/>
       <c r="AY9" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ9" s="18"/>
       <c r="BA9" s="5"/>
@@ -14654,14 +15540,14 @@
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
-      <c r="BN9" s="20"/>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="23"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="5"/>
       <c r="BR9" s="5"/>
       <c r="BS9" s="5"/>
       <c r="BW9" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BX9" s="18"/>
       <c r="BY9" s="5"/>
@@ -14677,14 +15563,14 @@
       <c r="CI9" s="5"/>
       <c r="CJ9" s="5"/>
       <c r="CK9" s="5"/>
-      <c r="CL9" s="20"/>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="23"/>
+      <c r="CL9" s="5"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="5"/>
       <c r="CP9" s="5"/>
       <c r="CQ9" s="5"/>
       <c r="CU9" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CV9" s="18"/>
       <c r="CW9" s="5"/>
@@ -14700,14 +15586,14 @@
       <c r="DG9" s="5"/>
       <c r="DH9" s="5"/>
       <c r="DI9" s="5"/>
-      <c r="DJ9" s="20"/>
-      <c r="DK9" s="21"/>
-      <c r="DL9" s="21"/>
-      <c r="DM9" s="23"/>
+      <c r="DJ9" s="5"/>
+      <c r="DK9" s="19"/>
+      <c r="DL9" s="19"/>
+      <c r="DM9" s="5"/>
       <c r="DN9" s="5"/>
       <c r="DO9" s="5"/>
       <c r="DR9" s="16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DS9" s="18"/>
       <c r="DT9" s="5"/>
@@ -14723,27 +15609,25 @@
       <c r="ED9" s="5"/>
       <c r="EE9" s="5"/>
       <c r="EF9" s="5"/>
-      <c r="EG9" s="20"/>
-      <c r="EH9" s="21"/>
-      <c r="EI9" s="21"/>
-      <c r="EJ9" s="23"/>
+      <c r="EG9" s="5"/>
+      <c r="EH9" s="19"/>
+      <c r="EI9" s="19"/>
+      <c r="EJ9" s="5"/>
       <c r="EK9" s="5"/>
       <c r="EL9" s="5"/>
     </row>
-    <row r="10" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C10" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -14752,23 +15636,23 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="20"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
+      <c r="T10" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="U10" s="23"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="AA10" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB10" s="18"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="24"/>
+      <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
@@ -14777,23 +15661,23 @@
       <c r="AO10" s="5"/>
       <c r="AP10" s="20"/>
       <c r="AQ10" s="21"/>
-      <c r="AR10" s="21"/>
+      <c r="AR10" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="AS10" s="23"/>
       <c r="AT10" s="5"/>
       <c r="AU10" s="5"/>
       <c r="AY10" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ10" s="18"/>
       <c r="BA10" s="5"/>
       <c r="BB10" s="5"/>
       <c r="BC10" s="5"/>
-      <c r="BD10" s="24"/>
+      <c r="BD10" s="5"/>
       <c r="BE10" s="5"/>
       <c r="BF10" s="5"/>
-      <c r="BG10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="BG10" s="5"/>
       <c r="BH10" s="5"/>
       <c r="BI10" s="5"/>
       <c r="BJ10" s="5"/>
@@ -14802,23 +15686,23 @@
       <c r="BM10" s="5"/>
       <c r="BN10" s="20"/>
       <c r="BO10" s="21"/>
-      <c r="BP10" s="21"/>
+      <c r="BP10" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="BQ10" s="23"/>
       <c r="BR10" s="5"/>
       <c r="BS10" s="5"/>
       <c r="BW10" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BX10" s="18"/>
       <c r="BY10" s="5"/>
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
-      <c r="CB10" s="24"/>
+      <c r="CB10" s="5"/>
       <c r="CC10" s="5"/>
       <c r="CD10" s="5"/>
-      <c r="CE10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="CE10" s="5"/>
       <c r="CF10" s="5"/>
       <c r="CG10" s="5"/>
       <c r="CH10" s="5"/>
@@ -14827,23 +15711,23 @@
       <c r="CK10" s="5"/>
       <c r="CL10" s="20"/>
       <c r="CM10" s="21"/>
-      <c r="CN10" s="21"/>
+      <c r="CN10" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="CO10" s="23"/>
       <c r="CP10" s="5"/>
       <c r="CQ10" s="5"/>
       <c r="CU10" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CV10" s="18"/>
       <c r="CW10" s="5"/>
       <c r="CX10" s="5"/>
       <c r="CY10" s="5"/>
-      <c r="CZ10" s="24"/>
+      <c r="CZ10" s="5"/>
       <c r="DA10" s="5"/>
       <c r="DB10" s="5"/>
-      <c r="DC10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="DC10" s="5"/>
       <c r="DD10" s="5"/>
       <c r="DE10" s="5"/>
       <c r="DF10" s="5"/>
@@ -14852,23 +15736,23 @@
       <c r="DI10" s="5"/>
       <c r="DJ10" s="20"/>
       <c r="DK10" s="21"/>
-      <c r="DL10" s="21"/>
+      <c r="DL10" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="DM10" s="23"/>
       <c r="DN10" s="5"/>
       <c r="DO10" s="5"/>
       <c r="DR10" s="16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DS10" s="18"/>
       <c r="DT10" s="5"/>
       <c r="DU10" s="5"/>
       <c r="DV10" s="5"/>
-      <c r="DW10" s="24"/>
+      <c r="DW10" s="5"/>
       <c r="DX10" s="5"/>
       <c r="DY10" s="5"/>
-      <c r="DZ10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="DZ10" s="5"/>
       <c r="EA10" s="5"/>
       <c r="EB10" s="5"/>
       <c r="EC10" s="5"/>
@@ -14877,14 +15761,16 @@
       <c r="EF10" s="5"/>
       <c r="EG10" s="20"/>
       <c r="EH10" s="21"/>
-      <c r="EI10" s="21"/>
+      <c r="EI10" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="EJ10" s="23"/>
       <c r="EK10" s="5"/>
       <c r="EL10" s="5"/>
     </row>
-    <row r="11" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C11" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
@@ -14907,7 +15793,7 @@
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="AA11" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB11" s="18"/>
       <c r="AC11" s="5"/>
@@ -14930,7 +15816,7 @@
       <c r="AT11" s="5"/>
       <c r="AU11" s="5"/>
       <c r="AY11" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ11" s="18"/>
       <c r="BA11" s="5"/>
@@ -14953,7 +15839,7 @@
       <c r="BR11" s="5"/>
       <c r="BS11" s="5"/>
       <c r="BW11" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BX11" s="18"/>
       <c r="BY11" s="5"/>
@@ -14976,7 +15862,7 @@
       <c r="CP11" s="5"/>
       <c r="CQ11" s="5"/>
       <c r="CU11" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CV11" s="18"/>
       <c r="CW11" s="5"/>
@@ -14999,7 +15885,7 @@
       <c r="DN11" s="5"/>
       <c r="DO11" s="5"/>
       <c r="DR11" s="16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="DS11" s="18"/>
       <c r="DT11" s="5"/>
@@ -15022,18 +15908,20 @@
       <c r="EK11" s="5"/>
       <c r="EL11" s="5"/>
     </row>
-    <row r="12" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C12" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -15044,19 +15932,21 @@
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="23"/>
-      <c r="V12" s="4"/>
+      <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="AA12" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB12" s="18"/>
-      <c r="AC12" s="24"/>
+      <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
+      <c r="AF12" s="24"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
+      <c r="AI12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
@@ -15067,19 +15957,21 @@
       <c r="AQ12" s="21"/>
       <c r="AR12" s="21"/>
       <c r="AS12" s="23"/>
-      <c r="AT12" s="4"/>
+      <c r="AT12" s="5"/>
       <c r="AU12" s="5"/>
       <c r="AY12" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ12" s="18"/>
-      <c r="BA12" s="24"/>
+      <c r="BA12" s="5"/>
       <c r="BB12" s="5"/>
       <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
+      <c r="BD12" s="24"/>
       <c r="BE12" s="5"/>
       <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
+      <c r="BG12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="BH12" s="5"/>
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
@@ -15090,19 +15982,21 @@
       <c r="BO12" s="21"/>
       <c r="BP12" s="21"/>
       <c r="BQ12" s="23"/>
-      <c r="BR12" s="4"/>
+      <c r="BR12" s="5"/>
       <c r="BS12" s="5"/>
       <c r="BW12" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BX12" s="18"/>
-      <c r="BY12" s="24"/>
+      <c r="BY12" s="5"/>
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
-      <c r="CB12" s="5"/>
+      <c r="CB12" s="24"/>
       <c r="CC12" s="5"/>
       <c r="CD12" s="5"/>
-      <c r="CE12" s="5"/>
+      <c r="CE12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="CF12" s="5"/>
       <c r="CG12" s="5"/>
       <c r="CH12" s="5"/>
@@ -15113,19 +16007,21 @@
       <c r="CM12" s="21"/>
       <c r="CN12" s="21"/>
       <c r="CO12" s="23"/>
-      <c r="CP12" s="4"/>
+      <c r="CP12" s="5"/>
       <c r="CQ12" s="5"/>
       <c r="CU12" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CV12" s="18"/>
-      <c r="CW12" s="24"/>
+      <c r="CW12" s="5"/>
       <c r="CX12" s="5"/>
       <c r="CY12" s="5"/>
-      <c r="CZ12" s="5"/>
+      <c r="CZ12" s="24"/>
       <c r="DA12" s="5"/>
       <c r="DB12" s="5"/>
-      <c r="DC12" s="5"/>
+      <c r="DC12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="DD12" s="5"/>
       <c r="DE12" s="5"/>
       <c r="DF12" s="5"/>
@@ -15136,19 +16032,21 @@
       <c r="DK12" s="21"/>
       <c r="DL12" s="21"/>
       <c r="DM12" s="23"/>
-      <c r="DN12" s="4"/>
+      <c r="DN12" s="5"/>
       <c r="DO12" s="5"/>
       <c r="DR12" s="16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DS12" s="18"/>
-      <c r="DT12" s="24"/>
+      <c r="DT12" s="5"/>
       <c r="DU12" s="5"/>
       <c r="DV12" s="5"/>
-      <c r="DW12" s="5"/>
+      <c r="DW12" s="24"/>
       <c r="DX12" s="5"/>
       <c r="DY12" s="5"/>
-      <c r="DZ12" s="5"/>
+      <c r="DZ12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="EA12" s="5"/>
       <c r="EB12" s="5"/>
       <c r="EC12" s="5"/>
@@ -15159,12 +16057,12 @@
       <c r="EH12" s="21"/>
       <c r="EI12" s="21"/>
       <c r="EJ12" s="23"/>
-      <c r="EK12" s="4"/>
+      <c r="EK12" s="5"/>
       <c r="EL12" s="5"/>
     </row>
-    <row r="13" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C13" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="5"/>
@@ -15172,11 +16070,11 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -15187,7 +16085,7 @@
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="AA13" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="18"/>
       <c r="AC13" s="5"/>
@@ -15195,11 +16093,11 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="24"/>
+      <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-      <c r="AL13" s="4"/>
+      <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
@@ -15210,7 +16108,7 @@
       <c r="AT13" s="5"/>
       <c r="AU13" s="5"/>
       <c r="AY13" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ13" s="18"/>
       <c r="BA13" s="5"/>
@@ -15218,11 +16116,11 @@
       <c r="BC13" s="5"/>
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
-      <c r="BF13" s="24"/>
+      <c r="BF13" s="5"/>
       <c r="BG13" s="5"/>
       <c r="BH13" s="5"/>
       <c r="BI13" s="5"/>
-      <c r="BJ13" s="4"/>
+      <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
       <c r="BM13" s="5"/>
@@ -15233,7 +16131,7 @@
       <c r="BR13" s="5"/>
       <c r="BS13" s="5"/>
       <c r="BW13" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BX13" s="18"/>
       <c r="BY13" s="5"/>
@@ -15241,11 +16139,11 @@
       <c r="CA13" s="5"/>
       <c r="CB13" s="5"/>
       <c r="CC13" s="5"/>
-      <c r="CD13" s="24"/>
+      <c r="CD13" s="5"/>
       <c r="CE13" s="5"/>
       <c r="CF13" s="5"/>
       <c r="CG13" s="5"/>
-      <c r="CH13" s="4"/>
+      <c r="CH13" s="5"/>
       <c r="CI13" s="5"/>
       <c r="CJ13" s="5"/>
       <c r="CK13" s="5"/>
@@ -15256,7 +16154,7 @@
       <c r="CP13" s="5"/>
       <c r="CQ13" s="5"/>
       <c r="CU13" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CV13" s="18"/>
       <c r="CW13" s="5"/>
@@ -15264,11 +16162,11 @@
       <c r="CY13" s="5"/>
       <c r="CZ13" s="5"/>
       <c r="DA13" s="5"/>
-      <c r="DB13" s="24"/>
+      <c r="DB13" s="5"/>
       <c r="DC13" s="5"/>
       <c r="DD13" s="5"/>
       <c r="DE13" s="5"/>
-      <c r="DF13" s="4"/>
+      <c r="DF13" s="5"/>
       <c r="DG13" s="5"/>
       <c r="DH13" s="5"/>
       <c r="DI13" s="5"/>
@@ -15279,7 +16177,7 @@
       <c r="DN13" s="5"/>
       <c r="DO13" s="5"/>
       <c r="DR13" s="16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="DS13" s="18"/>
       <c r="DT13" s="5"/>
@@ -15287,11 +16185,11 @@
       <c r="DV13" s="5"/>
       <c r="DW13" s="5"/>
       <c r="DX13" s="5"/>
-      <c r="DY13" s="24"/>
+      <c r="DY13" s="5"/>
       <c r="DZ13" s="5"/>
       <c r="EA13" s="5"/>
       <c r="EB13" s="5"/>
-      <c r="EC13" s="4"/>
+      <c r="EC13" s="5"/>
       <c r="ED13" s="5"/>
       <c r="EE13" s="5"/>
       <c r="EF13" s="5"/>
@@ -15302,12 +16200,12 @@
       <c r="EK13" s="5"/>
       <c r="EL13" s="5"/>
     </row>
-    <row r="14" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C14" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -15317,20 +16215,20 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="20"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
       <c r="U14" s="23"/>
-      <c r="V14" s="5"/>
+      <c r="V14" s="4"/>
       <c r="W14" s="5"/>
       <c r="AA14" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB14" s="18"/>
-      <c r="AC14" s="5"/>
+      <c r="AC14" s="24"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -15340,20 +16238,20 @@
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="4"/>
+      <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="20"/>
       <c r="AQ14" s="21"/>
       <c r="AR14" s="21"/>
       <c r="AS14" s="23"/>
-      <c r="AT14" s="5"/>
+      <c r="AT14" s="4"/>
       <c r="AU14" s="5"/>
       <c r="AY14" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ14" s="18"/>
-      <c r="BA14" s="5"/>
+      <c r="BA14" s="24"/>
       <c r="BB14" s="5"/>
       <c r="BC14" s="5"/>
       <c r="BD14" s="5"/>
@@ -15363,20 +16261,20 @@
       <c r="BH14" s="5"/>
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
-      <c r="BK14" s="4"/>
+      <c r="BK14" s="5"/>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
       <c r="BN14" s="20"/>
       <c r="BO14" s="21"/>
       <c r="BP14" s="21"/>
       <c r="BQ14" s="23"/>
-      <c r="BR14" s="5"/>
+      <c r="BR14" s="4"/>
       <c r="BS14" s="5"/>
       <c r="BW14" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BX14" s="18"/>
-      <c r="BY14" s="5"/>
+      <c r="BY14" s="24"/>
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
       <c r="CB14" s="5"/>
@@ -15386,20 +16284,20 @@
       <c r="CF14" s="5"/>
       <c r="CG14" s="5"/>
       <c r="CH14" s="5"/>
-      <c r="CI14" s="4"/>
+      <c r="CI14" s="5"/>
       <c r="CJ14" s="5"/>
       <c r="CK14" s="5"/>
       <c r="CL14" s="20"/>
       <c r="CM14" s="21"/>
       <c r="CN14" s="21"/>
       <c r="CO14" s="23"/>
-      <c r="CP14" s="5"/>
+      <c r="CP14" s="4"/>
       <c r="CQ14" s="5"/>
       <c r="CU14" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CV14" s="18"/>
-      <c r="CW14" s="5"/>
+      <c r="CW14" s="24"/>
       <c r="CX14" s="5"/>
       <c r="CY14" s="5"/>
       <c r="CZ14" s="5"/>
@@ -15409,20 +16307,20 @@
       <c r="DD14" s="5"/>
       <c r="DE14" s="5"/>
       <c r="DF14" s="5"/>
-      <c r="DG14" s="4"/>
+      <c r="DG14" s="5"/>
       <c r="DH14" s="5"/>
       <c r="DI14" s="5"/>
       <c r="DJ14" s="20"/>
       <c r="DK14" s="21"/>
       <c r="DL14" s="21"/>
       <c r="DM14" s="23"/>
-      <c r="DN14" s="5"/>
+      <c r="DN14" s="4"/>
       <c r="DO14" s="5"/>
       <c r="DR14" s="16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="DS14" s="18"/>
-      <c r="DT14" s="5"/>
+      <c r="DT14" s="24"/>
       <c r="DU14" s="5"/>
       <c r="DV14" s="5"/>
       <c r="DW14" s="5"/>
@@ -15432,159 +16330,159 @@
       <c r="EA14" s="5"/>
       <c r="EB14" s="5"/>
       <c r="EC14" s="5"/>
-      <c r="ED14" s="4"/>
+      <c r="ED14" s="5"/>
       <c r="EE14" s="5"/>
       <c r="EF14" s="5"/>
       <c r="EG14" s="20"/>
       <c r="EH14" s="21"/>
       <c r="EI14" s="21"/>
       <c r="EJ14" s="23"/>
-      <c r="EK14" s="5"/>
+      <c r="EK14" s="4"/>
       <c r="EL14" s="5"/>
     </row>
-    <row r="15" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C15" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="20"/>
-      <c r="S15" s="22"/>
+      <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="23"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="AA15" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB15" s="18"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
-      <c r="AE15" s="24"/>
+      <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
+      <c r="AH15" s="24"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
+      <c r="AL15" s="4"/>
       <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="20"/>
-      <c r="AQ15" s="22"/>
+      <c r="AQ15" s="21"/>
       <c r="AR15" s="21"/>
       <c r="AS15" s="23"/>
       <c r="AT15" s="5"/>
       <c r="AU15" s="5"/>
       <c r="AY15" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ15" s="18"/>
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
-      <c r="BC15" s="24"/>
+      <c r="BC15" s="5"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="5"/>
-      <c r="BF15" s="5"/>
+      <c r="BF15" s="24"/>
       <c r="BG15" s="5"/>
       <c r="BH15" s="5"/>
       <c r="BI15" s="5"/>
-      <c r="BJ15" s="5"/>
+      <c r="BJ15" s="4"/>
       <c r="BK15" s="5"/>
       <c r="BL15" s="5"/>
       <c r="BM15" s="5"/>
       <c r="BN15" s="20"/>
-      <c r="BO15" s="22"/>
+      <c r="BO15" s="21"/>
       <c r="BP15" s="21"/>
       <c r="BQ15" s="23"/>
       <c r="BR15" s="5"/>
       <c r="BS15" s="5"/>
       <c r="BW15" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BX15" s="18"/>
       <c r="BY15" s="5"/>
       <c r="BZ15" s="5"/>
-      <c r="CA15" s="24"/>
+      <c r="CA15" s="5"/>
       <c r="CB15" s="5"/>
       <c r="CC15" s="5"/>
-      <c r="CD15" s="5"/>
+      <c r="CD15" s="24"/>
       <c r="CE15" s="5"/>
       <c r="CF15" s="5"/>
       <c r="CG15" s="5"/>
-      <c r="CH15" s="5"/>
+      <c r="CH15" s="4"/>
       <c r="CI15" s="5"/>
       <c r="CJ15" s="5"/>
       <c r="CK15" s="5"/>
       <c r="CL15" s="20"/>
-      <c r="CM15" s="22"/>
+      <c r="CM15" s="21"/>
       <c r="CN15" s="21"/>
       <c r="CO15" s="23"/>
       <c r="CP15" s="5"/>
       <c r="CQ15" s="5"/>
       <c r="CU15" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="CV15" s="18"/>
       <c r="CW15" s="5"/>
       <c r="CX15" s="5"/>
-      <c r="CY15" s="24"/>
+      <c r="CY15" s="5"/>
       <c r="CZ15" s="5"/>
       <c r="DA15" s="5"/>
-      <c r="DB15" s="5"/>
+      <c r="DB15" s="24"/>
       <c r="DC15" s="5"/>
       <c r="DD15" s="5"/>
       <c r="DE15" s="5"/>
-      <c r="DF15" s="5"/>
+      <c r="DF15" s="4"/>
       <c r="DG15" s="5"/>
       <c r="DH15" s="5"/>
       <c r="DI15" s="5"/>
       <c r="DJ15" s="20"/>
-      <c r="DK15" s="22"/>
+      <c r="DK15" s="21"/>
       <c r="DL15" s="21"/>
       <c r="DM15" s="23"/>
       <c r="DN15" s="5"/>
       <c r="DO15" s="5"/>
       <c r="DR15" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DS15" s="18"/>
       <c r="DT15" s="5"/>
       <c r="DU15" s="5"/>
-      <c r="DV15" s="24"/>
+      <c r="DV15" s="5"/>
       <c r="DW15" s="5"/>
       <c r="DX15" s="5"/>
-      <c r="DY15" s="5"/>
+      <c r="DY15" s="24"/>
       <c r="DZ15" s="5"/>
       <c r="EA15" s="5"/>
       <c r="EB15" s="5"/>
-      <c r="EC15" s="5"/>
+      <c r="EC15" s="4"/>
       <c r="ED15" s="5"/>
       <c r="EE15" s="5"/>
       <c r="EF15" s="5"/>
       <c r="EG15" s="20"/>
-      <c r="EH15" s="22"/>
+      <c r="EH15" s="21"/>
       <c r="EI15" s="21"/>
       <c r="EJ15" s="23"/>
       <c r="EK15" s="5"/>
       <c r="EL15" s="5"/>
     </row>
-    <row r="16" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:142" x14ac:dyDescent="0.25">
       <c r="C16" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="5"/>
@@ -15597,17 +16495,17 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="5"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="23"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="AA16" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="18"/>
       <c r="AC16" s="5"/>
@@ -15620,17 +16518,17 @@
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
+      <c r="AM16" s="4"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="5"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="23"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5"/>
       <c r="AY16" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ16" s="18"/>
       <c r="BA16" s="5"/>
@@ -15643,17 +16541,17 @@
       <c r="BH16" s="5"/>
       <c r="BI16" s="5"/>
       <c r="BJ16" s="5"/>
-      <c r="BK16" s="5"/>
+      <c r="BK16" s="4"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
-      <c r="BN16" s="4"/>
-      <c r="BO16" s="25"/>
-      <c r="BP16" s="25"/>
-      <c r="BQ16" s="5"/>
+      <c r="BN16" s="20"/>
+      <c r="BO16" s="21"/>
+      <c r="BP16" s="21"/>
+      <c r="BQ16" s="23"/>
       <c r="BR16" s="5"/>
       <c r="BS16" s="5"/>
       <c r="BW16" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BX16" s="18"/>
       <c r="BY16" s="5"/>
@@ -15666,17 +16564,17 @@
       <c r="CF16" s="5"/>
       <c r="CG16" s="5"/>
       <c r="CH16" s="5"/>
-      <c r="CI16" s="5"/>
+      <c r="CI16" s="4"/>
       <c r="CJ16" s="5"/>
       <c r="CK16" s="5"/>
-      <c r="CL16" s="4"/>
-      <c r="CM16" s="25"/>
-      <c r="CN16" s="25"/>
-      <c r="CO16" s="5"/>
+      <c r="CL16" s="20"/>
+      <c r="CM16" s="21"/>
+      <c r="CN16" s="21"/>
+      <c r="CO16" s="23"/>
       <c r="CP16" s="5"/>
       <c r="CQ16" s="5"/>
       <c r="CU16" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CV16" s="18"/>
       <c r="CW16" s="5"/>
@@ -15689,17 +16587,17 @@
       <c r="DD16" s="5"/>
       <c r="DE16" s="5"/>
       <c r="DF16" s="5"/>
-      <c r="DG16" s="5"/>
+      <c r="DG16" s="4"/>
       <c r="DH16" s="5"/>
       <c r="DI16" s="5"/>
-      <c r="DJ16" s="4"/>
-      <c r="DK16" s="25"/>
-      <c r="DL16" s="25"/>
-      <c r="DM16" s="5"/>
+      <c r="DJ16" s="20"/>
+      <c r="DK16" s="21"/>
+      <c r="DL16" s="21"/>
+      <c r="DM16" s="23"/>
       <c r="DN16" s="5"/>
       <c r="DO16" s="5"/>
       <c r="DR16" s="16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="DS16" s="18"/>
       <c r="DT16" s="5"/>
@@ -15712,27 +16610,24 @@
       <c r="EA16" s="5"/>
       <c r="EB16" s="5"/>
       <c r="EC16" s="5"/>
-      <c r="ED16" s="5"/>
+      <c r="ED16" s="4"/>
       <c r="EE16" s="5"/>
       <c r="EF16" s="5"/>
-      <c r="EG16" s="4"/>
-      <c r="EH16" s="25"/>
-      <c r="EI16" s="25"/>
-      <c r="EJ16" s="5"/>
+      <c r="EG16" s="20"/>
+      <c r="EH16" s="21"/>
+      <c r="EI16" s="21"/>
+      <c r="EJ16" s="23"/>
       <c r="EK16" s="5"/>
       <c r="EL16" s="5"/>
     </row>
-    <row r="17" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="B17" s="27" t="s">
-        <v>12</v>
-      </c>
+    <row r="17" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C17" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -15743,19 +16638,19 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="4"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="23"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="AA17" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB17" s="18"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
+      <c r="AE17" s="24"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
@@ -15766,19 +16661,19 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="4"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="23"/>
       <c r="AT17" s="5"/>
       <c r="AU17" s="5"/>
       <c r="AY17" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ17" s="18"/>
       <c r="BA17" s="5"/>
       <c r="BB17" s="5"/>
-      <c r="BC17" s="5"/>
+      <c r="BC17" s="24"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="5"/>
       <c r="BF17" s="5"/>
@@ -15789,19 +16684,19 @@
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
-      <c r="BN17" s="5"/>
-      <c r="BO17" s="5"/>
-      <c r="BP17" s="5"/>
-      <c r="BQ17" s="4"/>
+      <c r="BN17" s="20"/>
+      <c r="BO17" s="22"/>
+      <c r="BP17" s="21"/>
+      <c r="BQ17" s="23"/>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
       <c r="BW17" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BX17" s="18"/>
       <c r="BY17" s="5"/>
       <c r="BZ17" s="5"/>
-      <c r="CA17" s="5"/>
+      <c r="CA17" s="24"/>
       <c r="CB17" s="5"/>
       <c r="CC17" s="5"/>
       <c r="CD17" s="5"/>
@@ -15812,19 +16707,19 @@
       <c r="CI17" s="5"/>
       <c r="CJ17" s="5"/>
       <c r="CK17" s="5"/>
-      <c r="CL17" s="5"/>
-      <c r="CM17" s="5"/>
-      <c r="CN17" s="5"/>
-      <c r="CO17" s="4"/>
+      <c r="CL17" s="20"/>
+      <c r="CM17" s="22"/>
+      <c r="CN17" s="21"/>
+      <c r="CO17" s="23"/>
       <c r="CP17" s="5"/>
       <c r="CQ17" s="5"/>
       <c r="CU17" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CV17" s="18"/>
       <c r="CW17" s="5"/>
       <c r="CX17" s="5"/>
-      <c r="CY17" s="5"/>
+      <c r="CY17" s="24"/>
       <c r="CZ17" s="5"/>
       <c r="DA17" s="5"/>
       <c r="DB17" s="5"/>
@@ -15835,19 +16730,19 @@
       <c r="DG17" s="5"/>
       <c r="DH17" s="5"/>
       <c r="DI17" s="5"/>
-      <c r="DJ17" s="5"/>
-      <c r="DK17" s="5"/>
-      <c r="DL17" s="5"/>
-      <c r="DM17" s="4"/>
+      <c r="DJ17" s="20"/>
+      <c r="DK17" s="22"/>
+      <c r="DL17" s="21"/>
+      <c r="DM17" s="23"/>
       <c r="DN17" s="5"/>
       <c r="DO17" s="5"/>
       <c r="DR17" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="DS17" s="18"/>
       <c r="DT17" s="5"/>
       <c r="DU17" s="5"/>
-      <c r="DV17" s="5"/>
+      <c r="DV17" s="24"/>
       <c r="DW17" s="5"/>
       <c r="DX17" s="5"/>
       <c r="DY17" s="5"/>
@@ -15858,16 +16753,16 @@
       <c r="ED17" s="5"/>
       <c r="EE17" s="5"/>
       <c r="EF17" s="5"/>
-      <c r="EG17" s="5"/>
-      <c r="EH17" s="5"/>
-      <c r="EI17" s="5"/>
-      <c r="EJ17" s="4"/>
+      <c r="EG17" s="20"/>
+      <c r="EH17" s="22"/>
+      <c r="EI17" s="21"/>
+      <c r="EJ17" s="23"/>
       <c r="EK17" s="5"/>
       <c r="EL17" s="5"/>
     </row>
-    <row r="18" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C18" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="5"/>
@@ -15883,14 +16778,14 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="AA18" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="18"/>
       <c r="AC18" s="5"/>
@@ -15906,14 +16801,14 @@
       <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
       <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
       <c r="AU18" s="5"/>
       <c r="AY18" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ18" s="18"/>
       <c r="BA18" s="5"/>
@@ -15929,14 +16824,14 @@
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
-      <c r="BN18" s="5"/>
-      <c r="BO18" s="5"/>
-      <c r="BP18" s="5"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="25"/>
       <c r="BQ18" s="5"/>
       <c r="BR18" s="5"/>
       <c r="BS18" s="5"/>
       <c r="BW18" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BX18" s="18"/>
       <c r="BY18" s="5"/>
@@ -15952,14 +16847,14 @@
       <c r="CI18" s="5"/>
       <c r="CJ18" s="5"/>
       <c r="CK18" s="5"/>
-      <c r="CL18" s="5"/>
-      <c r="CM18" s="5"/>
-      <c r="CN18" s="5"/>
+      <c r="CL18" s="4"/>
+      <c r="CM18" s="25"/>
+      <c r="CN18" s="25"/>
       <c r="CO18" s="5"/>
       <c r="CP18" s="5"/>
       <c r="CQ18" s="5"/>
       <c r="CU18" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CV18" s="18"/>
       <c r="CW18" s="5"/>
@@ -15975,14 +16870,14 @@
       <c r="DG18" s="5"/>
       <c r="DH18" s="5"/>
       <c r="DI18" s="5"/>
-      <c r="DJ18" s="5"/>
-      <c r="DK18" s="5"/>
-      <c r="DL18" s="5"/>
+      <c r="DJ18" s="4"/>
+      <c r="DK18" s="25"/>
+      <c r="DL18" s="25"/>
       <c r="DM18" s="5"/>
       <c r="DN18" s="5"/>
       <c r="DO18" s="5"/>
       <c r="DR18" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DS18" s="18"/>
       <c r="DT18" s="5"/>
@@ -15998,16 +16893,19 @@
       <c r="ED18" s="5"/>
       <c r="EE18" s="5"/>
       <c r="EF18" s="5"/>
-      <c r="EG18" s="5"/>
-      <c r="EH18" s="5"/>
-      <c r="EI18" s="5"/>
+      <c r="EG18" s="4"/>
+      <c r="EH18" s="25"/>
+      <c r="EI18" s="25"/>
       <c r="EJ18" s="5"/>
       <c r="EK18" s="5"/>
       <c r="EL18" s="5"/>
     </row>
-    <row r="19" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:142" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="5"/>
@@ -16015,21 +16913,22 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
+      <c r="U19" s="4"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="AA19" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB19" s="18"/>
       <c r="AC19" s="5"/>
@@ -16037,21 +16936,22 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="4"/>
+      <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
       <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
+      <c r="AS19" s="4"/>
       <c r="AT19" s="5"/>
       <c r="AU19" s="5"/>
       <c r="AY19" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ19" s="18"/>
       <c r="BA19" s="5"/>
@@ -16059,21 +16959,22 @@
       <c r="BC19" s="5"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="5"/>
-      <c r="BF19" s="4"/>
+      <c r="BF19" s="5"/>
       <c r="BG19" s="5"/>
       <c r="BH19" s="5"/>
       <c r="BI19" s="5"/>
       <c r="BJ19" s="5"/>
       <c r="BK19" s="5"/>
       <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
       <c r="BN19" s="5"/>
       <c r="BO19" s="5"/>
       <c r="BP19" s="5"/>
-      <c r="BQ19" s="5"/>
+      <c r="BQ19" s="4"/>
       <c r="BR19" s="5"/>
       <c r="BS19" s="5"/>
       <c r="BW19" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BX19" s="18"/>
       <c r="BY19" s="5"/>
@@ -16081,21 +16982,22 @@
       <c r="CA19" s="5"/>
       <c r="CB19" s="5"/>
       <c r="CC19" s="5"/>
-      <c r="CD19" s="4"/>
+      <c r="CD19" s="5"/>
       <c r="CE19" s="5"/>
       <c r="CF19" s="5"/>
       <c r="CG19" s="5"/>
       <c r="CH19" s="5"/>
       <c r="CI19" s="5"/>
       <c r="CJ19" s="5"/>
+      <c r="CK19" s="5"/>
       <c r="CL19" s="5"/>
       <c r="CM19" s="5"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="5"/>
+      <c r="CO19" s="4"/>
       <c r="CP19" s="5"/>
       <c r="CQ19" s="5"/>
       <c r="CU19" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CV19" s="18"/>
       <c r="CW19" s="5"/>
@@ -16103,21 +17005,22 @@
       <c r="CY19" s="5"/>
       <c r="CZ19" s="5"/>
       <c r="DA19" s="5"/>
-      <c r="DB19" s="4"/>
+      <c r="DB19" s="5"/>
       <c r="DC19" s="5"/>
       <c r="DD19" s="5"/>
       <c r="DE19" s="5"/>
       <c r="DF19" s="5"/>
       <c r="DG19" s="5"/>
       <c r="DH19" s="5"/>
+      <c r="DI19" s="5"/>
       <c r="DJ19" s="5"/>
       <c r="DK19" s="5"/>
       <c r="DL19" s="5"/>
-      <c r="DM19" s="5"/>
+      <c r="DM19" s="4"/>
       <c r="DN19" s="5"/>
       <c r="DO19" s="5"/>
       <c r="DR19" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DS19" s="18"/>
       <c r="DT19" s="5"/>
@@ -16125,27 +17028,28 @@
       <c r="DV19" s="5"/>
       <c r="DW19" s="5"/>
       <c r="DX19" s="5"/>
-      <c r="DY19" s="4"/>
+      <c r="DY19" s="5"/>
       <c r="DZ19" s="5"/>
       <c r="EA19" s="5"/>
       <c r="EB19" s="5"/>
       <c r="EC19" s="5"/>
       <c r="ED19" s="5"/>
       <c r="EE19" s="5"/>
+      <c r="EF19" s="5"/>
       <c r="EG19" s="5"/>
       <c r="EH19" s="5"/>
       <c r="EI19" s="5"/>
-      <c r="EJ19" s="5"/>
+      <c r="EJ19" s="4"/>
       <c r="EK19" s="5"/>
       <c r="EL19" s="5"/>
     </row>
-    <row r="20" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C20" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -16164,11 +17068,11 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="AA20" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB20" s="18"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="4"/>
+      <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
@@ -16187,11 +17091,11 @@
       <c r="AT20" s="5"/>
       <c r="AU20" s="5"/>
       <c r="AY20" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ20" s="18"/>
       <c r="BA20" s="5"/>
-      <c r="BB20" s="4"/>
+      <c r="BB20" s="5"/>
       <c r="BC20" s="5"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="5"/>
@@ -16210,11 +17114,11 @@
       <c r="BR20" s="5"/>
       <c r="BS20" s="5"/>
       <c r="BW20" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BX20" s="18"/>
       <c r="BY20" s="5"/>
-      <c r="BZ20" s="4"/>
+      <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
       <c r="CB20" s="5"/>
       <c r="CC20" s="5"/>
@@ -16233,11 +17137,11 @@
       <c r="CP20" s="5"/>
       <c r="CQ20" s="5"/>
       <c r="CU20" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CV20" s="18"/>
       <c r="CW20" s="5"/>
-      <c r="CX20" s="4"/>
+      <c r="CX20" s="5"/>
       <c r="CY20" s="5"/>
       <c r="CZ20" s="5"/>
       <c r="DA20" s="5"/>
@@ -16256,11 +17160,11 @@
       <c r="DN20" s="5"/>
       <c r="DO20" s="5"/>
       <c r="DR20" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DS20" s="18"/>
       <c r="DT20" s="5"/>
-      <c r="DU20" s="4"/>
+      <c r="DU20" s="5"/>
       <c r="DV20" s="5"/>
       <c r="DW20" s="5"/>
       <c r="DX20" s="5"/>
@@ -16279,597 +17183,1198 @@
       <c r="EK20" s="5"/>
       <c r="EL20" s="5"/>
     </row>
-    <row r="21" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C21" s="16">
+        <v>2</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="AA21" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AY21" s="16">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="18"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BW21" s="16">
+        <v>2</v>
+      </c>
+      <c r="BX21" s="18"/>
+      <c r="BY21" s="5"/>
+      <c r="BZ21" s="5"/>
+      <c r="CA21" s="5"/>
+      <c r="CB21" s="5"/>
+      <c r="CC21" s="5"/>
+      <c r="CD21" s="4"/>
+      <c r="CE21" s="5"/>
+      <c r="CF21" s="5"/>
+      <c r="CG21" s="5"/>
+      <c r="CH21" s="5"/>
+      <c r="CI21" s="5"/>
+      <c r="CJ21" s="5"/>
+      <c r="CL21" s="5"/>
+      <c r="CM21" s="5"/>
+      <c r="CN21" s="5"/>
+      <c r="CO21" s="5"/>
+      <c r="CP21" s="5"/>
+      <c r="CQ21" s="5"/>
+      <c r="CU21" s="16">
+        <v>2</v>
+      </c>
+      <c r="CV21" s="18"/>
+      <c r="CW21" s="5"/>
+      <c r="CX21" s="5"/>
+      <c r="CY21" s="5"/>
+      <c r="CZ21" s="5"/>
+      <c r="DA21" s="5"/>
+      <c r="DB21" s="4"/>
+      <c r="DC21" s="5"/>
+      <c r="DD21" s="5"/>
+      <c r="DE21" s="5"/>
+      <c r="DF21" s="5"/>
+      <c r="DG21" s="5"/>
+      <c r="DH21" s="5"/>
+      <c r="DJ21" s="5"/>
+      <c r="DK21" s="5"/>
+      <c r="DL21" s="5"/>
+      <c r="DM21" s="5"/>
+      <c r="DN21" s="5"/>
+      <c r="DO21" s="5"/>
+      <c r="DR21" s="16">
+        <v>2</v>
+      </c>
+      <c r="DS21" s="18"/>
+      <c r="DT21" s="5"/>
+      <c r="DU21" s="5"/>
+      <c r="DV21" s="5"/>
+      <c r="DW21" s="5"/>
+      <c r="DX21" s="5"/>
+      <c r="DY21" s="4"/>
+      <c r="DZ21" s="5"/>
+      <c r="EA21" s="5"/>
+      <c r="EB21" s="5"/>
+      <c r="EC21" s="5"/>
+      <c r="ED21" s="5"/>
+      <c r="EE21" s="5"/>
+      <c r="EG21" s="5"/>
+      <c r="EH21" s="5"/>
+      <c r="EI21" s="5"/>
+      <c r="EJ21" s="5"/>
+      <c r="EK21" s="5"/>
+      <c r="EL21" s="5"/>
+    </row>
+    <row r="22" spans="2:142" x14ac:dyDescent="0.25">
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="AA22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AY22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BW22" s="16">
+        <v>1</v>
+      </c>
+      <c r="BX22" s="18"/>
+      <c r="BY22" s="5"/>
+      <c r="BZ22" s="4"/>
+      <c r="CA22" s="5"/>
+      <c r="CB22" s="5"/>
+      <c r="CC22" s="5"/>
+      <c r="CD22" s="5"/>
+      <c r="CE22" s="5"/>
+      <c r="CF22" s="5"/>
+      <c r="CG22" s="5"/>
+      <c r="CH22" s="5"/>
+      <c r="CI22" s="5"/>
+      <c r="CJ22" s="5"/>
+      <c r="CK22" s="5"/>
+      <c r="CL22" s="5"/>
+      <c r="CM22" s="5"/>
+      <c r="CN22" s="5"/>
+      <c r="CO22" s="5"/>
+      <c r="CP22" s="5"/>
+      <c r="CQ22" s="5"/>
+      <c r="CU22" s="16">
+        <v>1</v>
+      </c>
+      <c r="CV22" s="18"/>
+      <c r="CW22" s="5"/>
+      <c r="CX22" s="4"/>
+      <c r="CY22" s="5"/>
+      <c r="CZ22" s="5"/>
+      <c r="DA22" s="5"/>
+      <c r="DB22" s="5"/>
+      <c r="DC22" s="5"/>
+      <c r="DD22" s="5"/>
+      <c r="DE22" s="5"/>
+      <c r="DF22" s="5"/>
+      <c r="DG22" s="5"/>
+      <c r="DH22" s="5"/>
+      <c r="DI22" s="5"/>
+      <c r="DJ22" s="5"/>
+      <c r="DK22" s="5"/>
+      <c r="DL22" s="5"/>
+      <c r="DM22" s="5"/>
+      <c r="DN22" s="5"/>
+      <c r="DO22" s="5"/>
+      <c r="DR22" s="16">
+        <v>1</v>
+      </c>
+      <c r="DS22" s="18"/>
+      <c r="DT22" s="5"/>
+      <c r="DU22" s="4"/>
+      <c r="DV22" s="5"/>
+      <c r="DW22" s="5"/>
+      <c r="DX22" s="5"/>
+      <c r="DY22" s="5"/>
+      <c r="DZ22" s="5"/>
+      <c r="EA22" s="5"/>
+      <c r="EB22" s="5"/>
+      <c r="EC22" s="5"/>
+      <c r="ED22" s="5"/>
+      <c r="EE22" s="5"/>
+      <c r="EF22" s="5"/>
+      <c r="EG22" s="5"/>
+      <c r="EH22" s="5"/>
+      <c r="EI22" s="5"/>
+      <c r="EJ22" s="5"/>
+      <c r="EK22" s="5"/>
+      <c r="EL22" s="5"/>
+    </row>
+    <row r="23" spans="2:142" x14ac:dyDescent="0.25">
+      <c r="C23" s="16">
         <v>0</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="AA21" s="16">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="AA23" s="16">
         <v>0</v>
       </c>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="18"/>
-      <c r="AH21" s="18"/>
-      <c r="AI21" s="18"/>
-      <c r="AJ21" s="18"/>
-      <c r="AK21" s="18"/>
-      <c r="AL21" s="18"/>
-      <c r="AM21" s="18"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="18"/>
-      <c r="AP21" s="18"/>
-      <c r="AQ21" s="18"/>
-      <c r="AR21" s="18"/>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="18"/>
-      <c r="AY21" s="16">
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="18"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="18"/>
+      <c r="AR23" s="18"/>
+      <c r="AS23" s="18"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="18"/>
+      <c r="AY23" s="16">
         <v>0</v>
       </c>
-      <c r="AZ21" s="18"/>
-      <c r="BA21" s="18"/>
-      <c r="BB21" s="18"/>
-      <c r="BC21" s="18"/>
-      <c r="BD21" s="18"/>
-      <c r="BE21" s="18"/>
-      <c r="BF21" s="18"/>
-      <c r="BG21" s="18"/>
-      <c r="BH21" s="18"/>
-      <c r="BI21" s="18"/>
-      <c r="BJ21" s="18"/>
-      <c r="BK21" s="18"/>
-      <c r="BL21" s="4"/>
-      <c r="BM21" s="18"/>
-      <c r="BN21" s="18"/>
-      <c r="BO21" s="18"/>
-      <c r="BP21" s="18"/>
-      <c r="BQ21" s="18"/>
-      <c r="BR21" s="18"/>
-      <c r="BS21" s="18"/>
-      <c r="BW21" s="16">
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="18"/>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="18"/>
+      <c r="BI23" s="18"/>
+      <c r="BJ23" s="18"/>
+      <c r="BK23" s="18"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="18"/>
+      <c r="BN23" s="18"/>
+      <c r="BO23" s="18"/>
+      <c r="BP23" s="18"/>
+      <c r="BQ23" s="18"/>
+      <c r="BR23" s="18"/>
+      <c r="BS23" s="18"/>
+      <c r="BW23" s="16">
         <v>0</v>
       </c>
-      <c r="BX21" s="18"/>
-      <c r="BY21" s="18"/>
-      <c r="BZ21" s="18"/>
-      <c r="CA21" s="18"/>
-      <c r="CB21" s="18"/>
-      <c r="CC21" s="18"/>
-      <c r="CD21" s="18"/>
-      <c r="CE21" s="18"/>
-      <c r="CF21" s="18"/>
-      <c r="CG21" s="18"/>
-      <c r="CH21" s="18"/>
-      <c r="CI21" s="18"/>
-      <c r="CJ21" s="4"/>
-      <c r="CK21" s="18"/>
-      <c r="CL21" s="18"/>
-      <c r="CM21" s="18"/>
-      <c r="CN21" s="18"/>
-      <c r="CO21" s="18"/>
-      <c r="CP21" s="18"/>
-      <c r="CQ21" s="18"/>
-      <c r="CU21" s="16">
+      <c r="BX23" s="18"/>
+      <c r="BY23" s="18"/>
+      <c r="BZ23" s="18"/>
+      <c r="CA23" s="18"/>
+      <c r="CB23" s="18"/>
+      <c r="CC23" s="18"/>
+      <c r="CD23" s="18"/>
+      <c r="CE23" s="18"/>
+      <c r="CF23" s="18"/>
+      <c r="CG23" s="18"/>
+      <c r="CH23" s="18"/>
+      <c r="CI23" s="18"/>
+      <c r="CJ23" s="4"/>
+      <c r="CK23" s="18"/>
+      <c r="CL23" s="18"/>
+      <c r="CM23" s="18"/>
+      <c r="CN23" s="18"/>
+      <c r="CO23" s="18"/>
+      <c r="CP23" s="18"/>
+      <c r="CQ23" s="18"/>
+      <c r="CU23" s="16">
         <v>0</v>
       </c>
-      <c r="CV21" s="18"/>
-      <c r="CW21" s="18"/>
-      <c r="CX21" s="18"/>
-      <c r="CY21" s="18"/>
-      <c r="CZ21" s="18"/>
-      <c r="DA21" s="18"/>
-      <c r="DB21" s="18"/>
-      <c r="DC21" s="18"/>
-      <c r="DD21" s="18"/>
-      <c r="DE21" s="18"/>
-      <c r="DF21" s="18"/>
-      <c r="DG21" s="18"/>
-      <c r="DH21" s="4"/>
-      <c r="DI21" s="18"/>
-      <c r="DJ21" s="18"/>
-      <c r="DK21" s="18"/>
-      <c r="DL21" s="18"/>
-      <c r="DM21" s="18"/>
-      <c r="DN21" s="18"/>
-      <c r="DO21" s="18"/>
-      <c r="DR21" s="16">
+      <c r="CV23" s="18"/>
+      <c r="CW23" s="18"/>
+      <c r="CX23" s="18"/>
+      <c r="CY23" s="18"/>
+      <c r="CZ23" s="18"/>
+      <c r="DA23" s="18"/>
+      <c r="DB23" s="18"/>
+      <c r="DC23" s="18"/>
+      <c r="DD23" s="18"/>
+      <c r="DE23" s="18"/>
+      <c r="DF23" s="18"/>
+      <c r="DG23" s="18"/>
+      <c r="DH23" s="4"/>
+      <c r="DI23" s="18"/>
+      <c r="DJ23" s="18"/>
+      <c r="DK23" s="18"/>
+      <c r="DL23" s="18"/>
+      <c r="DM23" s="18"/>
+      <c r="DN23" s="18"/>
+      <c r="DO23" s="18"/>
+      <c r="DR23" s="16">
         <v>0</v>
       </c>
-      <c r="DS21" s="18"/>
-      <c r="DT21" s="18"/>
-      <c r="DU21" s="18"/>
-      <c r="DV21" s="18"/>
-      <c r="DW21" s="18"/>
-      <c r="DX21" s="18"/>
-      <c r="DY21" s="18"/>
-      <c r="DZ21" s="18"/>
-      <c r="EA21" s="18"/>
-      <c r="EB21" s="18"/>
-      <c r="EC21" s="18"/>
-      <c r="ED21" s="18"/>
-      <c r="EE21" s="4"/>
-      <c r="EF21" s="18"/>
-      <c r="EG21" s="18"/>
-      <c r="EH21" s="18"/>
-      <c r="EI21" s="18"/>
-      <c r="EJ21" s="18"/>
-      <c r="EK21" s="18"/>
-      <c r="EL21" s="18"/>
+      <c r="DS23" s="18"/>
+      <c r="DT23" s="18"/>
+      <c r="DU23" s="18"/>
+      <c r="DV23" s="18"/>
+      <c r="DW23" s="18"/>
+      <c r="DX23" s="18"/>
+      <c r="DY23" s="18"/>
+      <c r="DZ23" s="18"/>
+      <c r="EA23" s="18"/>
+      <c r="EB23" s="18"/>
+      <c r="EC23" s="18"/>
+      <c r="ED23" s="18"/>
+      <c r="EE23" s="4"/>
+      <c r="EF23" s="18"/>
+      <c r="EG23" s="18"/>
+      <c r="EH23" s="18"/>
+      <c r="EI23" s="18"/>
+      <c r="EJ23" s="18"/>
+      <c r="EK23" s="18"/>
+      <c r="EL23" s="18"/>
     </row>
-    <row r="22" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="D22" s="1">
+    <row r="24" spans="2:142" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F24" s="16">
         <v>2</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G24" s="16">
         <v>3</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H24" s="16">
         <v>4</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I24" s="16">
         <v>5</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J24" s="16">
         <v>6</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K24" s="16">
         <v>7</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L24" s="16">
         <v>8</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M24" s="16">
         <v>9</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N24" s="16">
         <v>10</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O24" s="16">
         <v>11</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P24" s="16">
         <v>12</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q24" s="16">
         <v>13</v>
       </c>
-      <c r="R22" s="16">
+      <c r="R24" s="16">
         <v>14</v>
       </c>
-      <c r="S22" s="16">
+      <c r="S24" s="16">
         <v>15</v>
       </c>
-      <c r="T22" s="16">
+      <c r="T24" s="16">
         <v>16</v>
       </c>
-      <c r="U22" s="16">
+      <c r="U24" s="16">
         <v>17</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V24" s="16">
         <v>18</v>
       </c>
-      <c r="W22" s="16">
+      <c r="W24" s="16">
         <v>19</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB24" s="1">
         <v>0</v>
       </c>
-      <c r="AC22" s="16">
+      <c r="AC24" s="16">
         <v>1</v>
       </c>
-      <c r="AD22" s="16">
+      <c r="AD24" s="16">
         <v>2</v>
       </c>
-      <c r="AE22" s="16">
+      <c r="AE24" s="16">
         <v>3</v>
       </c>
-      <c r="AF22" s="16">
+      <c r="AF24" s="16">
         <v>4</v>
       </c>
-      <c r="AG22" s="16">
+      <c r="AG24" s="16">
         <v>5</v>
       </c>
-      <c r="AH22" s="16">
+      <c r="AH24" s="16">
         <v>6</v>
       </c>
-      <c r="AI22" s="16">
+      <c r="AI24" s="16">
         <v>7</v>
       </c>
-      <c r="AJ22" s="16">
+      <c r="AJ24" s="16">
         <v>8</v>
       </c>
-      <c r="AK22" s="16">
+      <c r="AK24" s="16">
         <v>9</v>
       </c>
-      <c r="AL22" s="16">
+      <c r="AL24" s="16">
         <v>10</v>
       </c>
-      <c r="AM22" s="16">
+      <c r="AM24" s="16">
         <v>11</v>
       </c>
-      <c r="AN22" s="16">
+      <c r="AN24" s="16">
         <v>12</v>
       </c>
-      <c r="AO22" s="16">
+      <c r="AO24" s="16">
         <v>13</v>
       </c>
-      <c r="AP22" s="16">
+      <c r="AP24" s="16">
         <v>14</v>
       </c>
-      <c r="AQ22" s="16">
+      <c r="AQ24" s="16">
         <v>15</v>
       </c>
-      <c r="AR22" s="16">
+      <c r="AR24" s="16">
         <v>16</v>
       </c>
-      <c r="AS22" s="16">
+      <c r="AS24" s="16">
         <v>17</v>
       </c>
-      <c r="AT22" s="16">
+      <c r="AT24" s="16">
         <v>18</v>
       </c>
-      <c r="AU22" s="16">
+      <c r="AU24" s="16">
         <v>19</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="AZ24" s="1">
         <v>0</v>
       </c>
-      <c r="BA22" s="16">
+      <c r="BA24" s="16">
         <v>1</v>
       </c>
-      <c r="BB22" s="16">
+      <c r="BB24" s="16">
         <v>2</v>
       </c>
-      <c r="BC22" s="16">
+      <c r="BC24" s="16">
         <v>3</v>
       </c>
-      <c r="BD22" s="16">
+      <c r="BD24" s="16">
         <v>4</v>
       </c>
-      <c r="BE22" s="16">
+      <c r="BE24" s="16">
         <v>5</v>
       </c>
-      <c r="BF22" s="16">
+      <c r="BF24" s="16">
         <v>6</v>
       </c>
-      <c r="BG22" s="16">
+      <c r="BG24" s="16">
         <v>7</v>
       </c>
-      <c r="BH22" s="16">
+      <c r="BH24" s="16">
         <v>8</v>
       </c>
-      <c r="BI22" s="16">
+      <c r="BI24" s="16">
         <v>9</v>
       </c>
-      <c r="BJ22" s="16">
+      <c r="BJ24" s="16">
         <v>10</v>
       </c>
-      <c r="BK22" s="16">
+      <c r="BK24" s="16">
         <v>11</v>
       </c>
-      <c r="BL22" s="16">
+      <c r="BL24" s="16">
         <v>12</v>
       </c>
-      <c r="BM22" s="16">
+      <c r="BM24" s="16">
         <v>13</v>
       </c>
-      <c r="BN22" s="16">
+      <c r="BN24" s="16">
         <v>14</v>
       </c>
-      <c r="BO22" s="16">
+      <c r="BO24" s="16">
         <v>15</v>
       </c>
-      <c r="BP22" s="16">
+      <c r="BP24" s="16">
         <v>16</v>
       </c>
-      <c r="BQ22" s="16">
+      <c r="BQ24" s="16">
         <v>17</v>
       </c>
-      <c r="BR22" s="16">
+      <c r="BR24" s="16">
         <v>18</v>
       </c>
-      <c r="BS22" s="16">
+      <c r="BS24" s="16">
         <v>19</v>
       </c>
-      <c r="BX22" s="1">
+      <c r="BX24" s="1">
         <v>0</v>
       </c>
-      <c r="BY22" s="16">
+      <c r="BY24" s="16">
         <v>1</v>
       </c>
-      <c r="BZ22" s="16">
+      <c r="BZ24" s="16">
         <v>2</v>
       </c>
-      <c r="CA22" s="16">
+      <c r="CA24" s="16">
         <v>3</v>
       </c>
-      <c r="CB22" s="16">
+      <c r="CB24" s="16">
         <v>4</v>
       </c>
-      <c r="CC22" s="16">
+      <c r="CC24" s="16">
         <v>5</v>
       </c>
-      <c r="CD22" s="16">
+      <c r="CD24" s="16">
         <v>6</v>
       </c>
-      <c r="CE22" s="16">
+      <c r="CE24" s="16">
         <v>7</v>
       </c>
-      <c r="CF22" s="16">
+      <c r="CF24" s="16">
         <v>8</v>
       </c>
-      <c r="CG22" s="16">
+      <c r="CG24" s="16">
         <v>9</v>
       </c>
-      <c r="CH22" s="16">
+      <c r="CH24" s="16">
         <v>10</v>
       </c>
-      <c r="CI22" s="16">
+      <c r="CI24" s="16">
         <v>11</v>
       </c>
-      <c r="CJ22" s="16">
+      <c r="CJ24" s="16">
         <v>12</v>
       </c>
-      <c r="CK22" s="16">
+      <c r="CK24" s="16">
         <v>13</v>
       </c>
-      <c r="CL22" s="16">
+      <c r="CL24" s="16">
         <v>14</v>
       </c>
-      <c r="CM22" s="16">
+      <c r="CM24" s="16">
         <v>15</v>
       </c>
-      <c r="CN22" s="16">
+      <c r="CN24" s="16">
         <v>16</v>
       </c>
-      <c r="CO22" s="16">
+      <c r="CO24" s="16">
         <v>17</v>
       </c>
-      <c r="CP22" s="16">
+      <c r="CP24" s="16">
         <v>18</v>
       </c>
-      <c r="CQ22" s="16">
+      <c r="CQ24" s="16">
         <v>19</v>
       </c>
-      <c r="CV22" s="1">
+      <c r="CV24" s="1">
         <v>0</v>
       </c>
-      <c r="CW22" s="16">
+      <c r="CW24" s="16">
         <v>1</v>
       </c>
-      <c r="CX22" s="16">
+      <c r="CX24" s="16">
         <v>2</v>
       </c>
-      <c r="CY22" s="16">
+      <c r="CY24" s="16">
         <v>3</v>
       </c>
-      <c r="CZ22" s="16">
+      <c r="CZ24" s="16">
         <v>4</v>
       </c>
-      <c r="DA22" s="16">
+      <c r="DA24" s="16">
         <v>5</v>
       </c>
-      <c r="DB22" s="16">
+      <c r="DB24" s="16">
         <v>6</v>
       </c>
-      <c r="DC22" s="16">
+      <c r="DC24" s="16">
         <v>7</v>
       </c>
-      <c r="DD22" s="16">
+      <c r="DD24" s="16">
         <v>8</v>
       </c>
-      <c r="DE22" s="16">
+      <c r="DE24" s="16">
         <v>9</v>
       </c>
-      <c r="DF22" s="16">
+      <c r="DF24" s="16">
         <v>10</v>
       </c>
-      <c r="DG22" s="16">
+      <c r="DG24" s="16">
         <v>11</v>
       </c>
-      <c r="DH22" s="16">
+      <c r="DH24" s="16">
         <v>12</v>
       </c>
-      <c r="DI22" s="16">
+      <c r="DI24" s="16">
         <v>13</v>
       </c>
-      <c r="DJ22" s="16">
+      <c r="DJ24" s="16">
         <v>14</v>
       </c>
-      <c r="DK22" s="16">
+      <c r="DK24" s="16">
         <v>15</v>
       </c>
-      <c r="DL22" s="16">
+      <c r="DL24" s="16">
         <v>16</v>
       </c>
-      <c r="DM22" s="16">
+      <c r="DM24" s="16">
         <v>17</v>
       </c>
-      <c r="DN22" s="16">
+      <c r="DN24" s="16">
         <v>18</v>
       </c>
-      <c r="DO22" s="16">
+      <c r="DO24" s="16">
         <v>19</v>
       </c>
-      <c r="DS22" s="1">
+      <c r="DS24" s="1">
         <v>0</v>
       </c>
-      <c r="DT22" s="16">
+      <c r="DT24" s="16">
         <v>1</v>
       </c>
-      <c r="DU22" s="16">
+      <c r="DU24" s="16">
         <v>2</v>
       </c>
-      <c r="DV22" s="16">
+      <c r="DV24" s="16">
         <v>3</v>
       </c>
-      <c r="DW22" s="16">
+      <c r="DW24" s="16">
         <v>4</v>
       </c>
-      <c r="DX22" s="16">
+      <c r="DX24" s="16">
         <v>5</v>
       </c>
-      <c r="DY22" s="16">
+      <c r="DY24" s="16">
         <v>6</v>
       </c>
-      <c r="DZ22" s="16">
+      <c r="DZ24" s="16">
         <v>7</v>
       </c>
-      <c r="EA22" s="16">
+      <c r="EA24" s="16">
         <v>8</v>
       </c>
-      <c r="EB22" s="16">
+      <c r="EB24" s="16">
         <v>9</v>
       </c>
-      <c r="EC22" s="16">
+      <c r="EC24" s="16">
         <v>10</v>
       </c>
-      <c r="ED22" s="16">
+      <c r="ED24" s="16">
         <v>11</v>
       </c>
-      <c r="EE22" s="16">
+      <c r="EE24" s="16">
         <v>12</v>
       </c>
-      <c r="EF22" s="16">
+      <c r="EF24" s="16">
         <v>13</v>
       </c>
-      <c r="EG22" s="16">
+      <c r="EG24" s="16">
         <v>14</v>
       </c>
-      <c r="EH22" s="16">
+      <c r="EH24" s="16">
         <v>15</v>
       </c>
-      <c r="EI22" s="16">
+      <c r="EI24" s="16">
         <v>16</v>
       </c>
-      <c r="EJ22" s="16">
+      <c r="EJ24" s="16">
         <v>17</v>
       </c>
-      <c r="EK22" s="16">
+      <c r="EK24" s="16">
         <v>18</v>
       </c>
-      <c r="EL22" s="16">
+      <c r="EL24" s="16">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="C29" s="16">
+    <row r="31" spans="2:142" x14ac:dyDescent="0.25">
+      <c r="C31" s="16">
         <v>3</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="J29" s="16">
-        <v>3</v>
-      </c>
-      <c r="K29" s="18"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="C30" s="16">
-        <v>2</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="J30" s="16">
-        <v>2</v>
-      </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:142" x14ac:dyDescent="0.35">
-      <c r="C31" s="16">
-        <v>1</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="J31" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K31" s="18"/>
       <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:142" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:142" x14ac:dyDescent="0.25">
       <c r="C32" s="16">
+        <v>2</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="J32" s="16">
+        <v>2</v>
+      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="J33" s="16">
+        <v>1</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C34" s="16">
         <v>0</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="J32" s="16">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="J34" s="16">
         <v>0</v>
       </c>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D33" s="1">
+    <row r="35" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F35" s="1">
         <v>2</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G35" s="1">
         <v>3</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="1">
+      <c r="J35" s="16"/>
+      <c r="K35" s="1">
         <v>0</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L35" s="1">
         <v>1</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M35" s="1">
         <v>2</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N35" s="1">
         <v>3</v>
       </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C37" s="16">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="4"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="65"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C38" s="16">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+    </row>
+    <row r="39" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C39" s="16">
+        <v>4</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2"/>
+      <c r="L39" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="12"/>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C40" s="16">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C41" s="16">
+        <v>2</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C42" s="16">
+        <v>1</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5</v>
+      </c>
+      <c r="J44" s="1">
+        <v>6</v>
+      </c>
+      <c r="O44" s="16"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="16">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="16">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C51" s="16">
+        <v>4</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="64"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" s="16">
+        <v>3</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C53" s="16">
+        <v>2</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="16">
+        <v>1</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C55" s="16">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D56" s="64">
+        <v>0</v>
+      </c>
+      <c r="E56" s="64">
+        <v>1</v>
+      </c>
+      <c r="F56" s="64">
+        <v>2</v>
+      </c>
+      <c r="G56" s="64">
+        <v>3</v>
+      </c>
+      <c r="H56" s="64">
+        <v>4</v>
+      </c>
+      <c r="I56" s="64">
+        <v>5</v>
+      </c>
+      <c r="J56" s="64">
+        <v>6</v>
+      </c>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16881,6 +18386,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54DFA0D-9230-4B52-B597-6B65C0C5DA6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988365E3-3B81-411F-B975-6CAA2B0C7C7F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11676968-8A2D-4D5C-B828-16AF2C6FABD1}">
   <dimension ref="B3:DQ29"/>
   <sheetViews>
@@ -16888,19 +18422,19 @@
       <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.07421875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="2.61328125" style="40" customWidth="1"/>
-    <col min="3" max="22" width="2.23046875" style="40" customWidth="1"/>
-    <col min="23" max="24" width="3.07421875" style="40"/>
-    <col min="25" max="25" width="2.69140625" style="40" customWidth="1"/>
-    <col min="26" max="46" width="2.23046875" style="40" customWidth="1"/>
-    <col min="47" max="48" width="3.07421875" style="40"/>
-    <col min="49" max="123" width="2.23046875" style="40" customWidth="1"/>
-    <col min="124" max="16384" width="3.07421875" style="40"/>
+    <col min="1" max="2" width="2.6640625" style="40" customWidth="1"/>
+    <col min="3" max="22" width="2.21875" style="40" customWidth="1"/>
+    <col min="23" max="24" width="3.109375" style="40"/>
+    <col min="25" max="25" width="2.6640625" style="40" customWidth="1"/>
+    <col min="26" max="46" width="2.21875" style="40" customWidth="1"/>
+    <col min="47" max="48" width="3.109375" style="40"/>
+    <col min="49" max="123" width="2.21875" style="40" customWidth="1"/>
+    <col min="124" max="16384" width="3.109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>19</v>
       </c>
@@ -17027,7 +18561,7 @@
       <c r="DP3" s="44"/>
       <c r="DQ3" s="45"/>
     </row>
-    <row r="4" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>18</v>
       </c>
@@ -17154,7 +18688,7 @@
       <c r="DP4" s="44"/>
       <c r="DQ4" s="45"/>
     </row>
-    <row r="5" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>17</v>
       </c>
@@ -17281,7 +18815,7 @@
       <c r="DP5" s="44"/>
       <c r="DQ5" s="45"/>
     </row>
-    <row r="6" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>16</v>
       </c>
@@ -17408,7 +18942,7 @@
       <c r="DP6" s="44"/>
       <c r="DQ6" s="45"/>
     </row>
-    <row r="7" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>15</v>
       </c>
@@ -17535,7 +19069,7 @@
       <c r="DP7" s="44"/>
       <c r="DQ7" s="45"/>
     </row>
-    <row r="8" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>14</v>
       </c>
@@ -17652,7 +19186,7 @@
       <c r="DP8" s="44"/>
       <c r="DQ8" s="45"/>
     </row>
-    <row r="9" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>13</v>
       </c>
@@ -17779,7 +19313,7 @@
       <c r="DP9" s="44"/>
       <c r="DQ9" s="45"/>
     </row>
-    <row r="10" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>12</v>
       </c>
@@ -17896,7 +19430,7 @@
       <c r="DP10" s="44"/>
       <c r="DQ10" s="45"/>
     </row>
-    <row r="11" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>11</v>
       </c>
@@ -18023,7 +19557,7 @@
       <c r="DP11" s="44"/>
       <c r="DQ11" s="45"/>
     </row>
-    <row r="12" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -18140,7 +19674,7 @@
       <c r="DP12" s="44"/>
       <c r="DQ12" s="45"/>
     </row>
-    <row r="13" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>9</v>
       </c>
@@ -18267,7 +19801,7 @@
       </c>
       <c r="DQ13" s="45"/>
     </row>
-    <row r="14" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>8</v>
       </c>
@@ -18394,7 +19928,7 @@
       <c r="DP14" s="44"/>
       <c r="DQ14" s="45"/>
     </row>
-    <row r="15" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>7</v>
       </c>
@@ -18521,7 +20055,7 @@
       <c r="DP15" s="44"/>
       <c r="DQ15" s="45"/>
     </row>
-    <row r="16" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>6</v>
       </c>
@@ -18648,7 +20182,7 @@
       <c r="DP16" s="44"/>
       <c r="DQ16" s="45"/>
     </row>
-    <row r="17" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>5</v>
       </c>
@@ -18775,7 +20309,7 @@
       <c r="DP17" s="44"/>
       <c r="DQ17" s="45"/>
     </row>
-    <row r="18" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>4</v>
       </c>
@@ -18902,7 +20436,7 @@
       <c r="DP18" s="44"/>
       <c r="DQ18" s="45"/>
     </row>
-    <row r="19" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>3</v>
       </c>
@@ -19019,7 +20553,7 @@
       <c r="DP19" s="44"/>
       <c r="DQ19" s="45"/>
     </row>
-    <row r="20" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>2</v>
       </c>
@@ -19146,7 +20680,7 @@
       <c r="DP20" s="44"/>
       <c r="DQ20" s="45"/>
     </row>
-    <row r="21" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>1</v>
       </c>
@@ -19273,7 +20807,7 @@
       <c r="DP21" s="44"/>
       <c r="DQ21" s="45"/>
     </row>
-    <row r="22" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>0</v>
       </c>
@@ -19400,7 +20934,7 @@
       <c r="DP22" s="57"/>
       <c r="DQ22" s="57"/>
     </row>
-    <row r="23" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>-1</v>
       </c>
@@ -19717,7 +21251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40">
         <v>-2</v>
       </c>
@@ -19834,7 +21368,7 @@
       <c r="DP24" s="46"/>
       <c r="DQ24" s="46"/>
     </row>
-    <row r="25" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>-3</v>
       </c>
@@ -19951,7 +21485,7 @@
       <c r="DP25" s="46"/>
       <c r="DQ25" s="46"/>
     </row>
-    <row r="26" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40">
         <v>-4</v>
       </c>
@@ -20068,7 +21602,7 @@
       <c r="DP26" s="46"/>
       <c r="DQ26" s="46"/>
     </row>
-    <row r="27" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
         <v>-5</v>
       </c>
@@ -20185,7 +21719,7 @@
       <c r="DP27" s="46"/>
       <c r="DQ27" s="46"/>
     </row>
-    <row r="28" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="40">
         <v>-6</v>
       </c>
@@ -20302,7 +21836,7 @@
       <c r="DP28" s="46"/>
       <c r="DQ28" s="46"/>
     </row>
-    <row r="29" spans="2:121" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:121" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <v>-7</v>
       </c>
@@ -20427,7 +21961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24502B2-26AF-46D5-8CCC-EC53B2DA06BD}">
   <dimension ref="A1:X29"/>
   <sheetViews>
@@ -20435,40 +21969,40 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4609375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.4609375" style="1"/>
-    <col min="2" max="2" width="2.765625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="2.3046875" style="1" customWidth="1"/>
-    <col min="16" max="18" width="2.4609375" style="1"/>
-    <col min="19" max="19" width="2.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.4609375" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1"/>
+    <col min="2" max="2" width="2.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="2.33203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="2.44140625" style="1"/>
+    <col min="19" max="19" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>10</v>
       </c>
@@ -20487,7 +22021,7 @@
       <c r="O4" s="33"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>9</v>
       </c>
@@ -20506,7 +22040,7 @@
       <c r="O5" s="33"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>8</v>
       </c>
@@ -20525,7 +22059,7 @@
       <c r="O6" s="33"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>7</v>
       </c>
@@ -20544,7 +22078,7 @@
       <c r="O7" s="33"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -20565,7 +22099,7 @@
       <c r="O8" s="33"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -20586,7 +22120,7 @@
       <c r="O9" s="33"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27"/>
       <c r="B10" s="16">
         <v>4</v>
@@ -20608,7 +22142,7 @@
       <c r="O10" s="33"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>3</v>
       </c>
@@ -20629,7 +22163,7 @@
       <c r="O11" s="33"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>2</v>
       </c>
@@ -20650,7 +22184,7 @@
       <c r="O12" s="33"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>1</v>
       </c>
@@ -20671,7 +22205,7 @@
       <c r="O13" s="33"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>0</v>
       </c>
@@ -20690,7 +22224,7 @@
       <c r="O14" s="33"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C15" s="32">
         <v>0</v>
       </c>
@@ -20731,7 +22265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -20739,7 +22273,7 @@
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>10</v>
       </c>
@@ -20765,7 +22299,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
         <v>9</v>
       </c>
@@ -20789,7 +22323,7 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="16">
         <v>8</v>
       </c>
@@ -20809,7 +22343,7 @@
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
         <v>7</v>
       </c>
@@ -20827,7 +22361,7 @@
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
     </row>
-    <row r="22" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16">
         <v>6</v>
       </c>
@@ -20847,7 +22381,7 @@
       <c r="N22" s="33"/>
       <c r="O22" s="33"/>
     </row>
-    <row r="23" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
         <v>5</v>
       </c>
@@ -20867,7 +22401,7 @@
       <c r="N23" s="33"/>
       <c r="O23" s="33"/>
     </row>
-    <row r="24" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>4</v>
       </c>
@@ -20887,7 +22421,7 @@
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
     </row>
-    <row r="25" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
         <v>3</v>
       </c>
@@ -20907,7 +22441,7 @@
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
     </row>
-    <row r="26" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="16">
         <v>2</v>
       </c>
@@ -20927,7 +22461,7 @@
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
     </row>
-    <row r="27" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="16">
         <v>1</v>
       </c>
@@ -20947,7 +22481,7 @@
       </c>
       <c r="O27" s="33"/>
     </row>
-    <row r="28" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="16">
         <v>0</v>
       </c>
@@ -20967,7 +22501,7 @@
       <c r="N28" s="36"/>
       <c r="O28" s="33"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C29" s="32">
         <v>0</v>
       </c>
@@ -21020,20 +22554,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101CA382-2F14-4ACE-8D78-40A6D7F9FBEA}">
   <dimension ref="C2:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.84375" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="17" width="3.23046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S2" s="41">
         <v>3</v>
       </c>
@@ -21041,21 +22575,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q3" s="16"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
     </row>
-    <row r="4" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q4" s="16">
         <v>10</v>
       </c>
@@ -21070,9 +22604,9 @@
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="64"/>
+      <c r="AC4" s="61"/>
     </row>
-    <row r="5" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q5" s="16">
         <v>9</v>
       </c>
@@ -21087,9 +22621,9 @@
       <c r="Z5" s="39"/>
       <c r="AA5" s="39"/>
       <c r="AB5" s="39"/>
-      <c r="AC5" s="64"/>
+      <c r="AC5" s="61"/>
     </row>
-    <row r="6" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="16">
         <v>5</v>
       </c>
@@ -21112,9 +22646,9 @@
       <c r="Z6" s="39"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="39"/>
-      <c r="AC6" s="64"/>
+      <c r="AC6" s="61"/>
     </row>
-    <row r="7" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16">
         <v>4</v>
       </c>
@@ -21131,16 +22665,16 @@
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
       <c r="U7" s="39"/>
-      <c r="V7" s="63"/>
+      <c r="V7" s="60"/>
       <c r="W7" s="39"/>
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
       <c r="Z7" s="39"/>
       <c r="AA7" s="39"/>
       <c r="AB7" s="39"/>
-      <c r="AC7" s="64"/>
+      <c r="AC7" s="61"/>
     </row>
-    <row r="8" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="16">
         <v>3</v>
       </c>
@@ -21164,9 +22698,9 @@
       <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39"/>
-      <c r="AC8" s="64"/>
+      <c r="AC8" s="61"/>
     </row>
-    <row r="9" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="16">
         <v>2</v>
       </c>
@@ -21192,9 +22726,9 @@
       <c r="Z9" s="39"/>
       <c r="AA9" s="39"/>
       <c r="AB9" s="39"/>
-      <c r="AC9" s="64"/>
+      <c r="AC9" s="61"/>
     </row>
-    <row r="10" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="16">
         <v>1</v>
       </c>
@@ -21219,9 +22753,9 @@
       <c r="Z10" s="39"/>
       <c r="AA10" s="39"/>
       <c r="AB10" s="39"/>
-      <c r="AC10" s="64"/>
+      <c r="AC10" s="61"/>
     </row>
-    <row r="11" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="16">
         <v>0</v>
       </c>
@@ -21244,11 +22778,11 @@
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
       <c r="Z11" s="39"/>
-      <c r="AA11" s="63"/>
+      <c r="AA11" s="60"/>
       <c r="AB11" s="39"/>
-      <c r="AC11" s="64"/>
+      <c r="AC11" s="61"/>
     </row>
-    <row r="12" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="38">
         <v>0</v>
@@ -21280,9 +22814,9 @@
       <c r="Y12" s="39"/>
       <c r="Z12" s="39"/>
       <c r="AB12" s="39"/>
-      <c r="AC12" s="64"/>
+      <c r="AC12" s="61"/>
     </row>
-    <row r="13" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -21303,9 +22837,9 @@
       <c r="Z13" s="39"/>
       <c r="AA13" s="39"/>
       <c r="AB13" s="39"/>
-      <c r="AC13" s="64"/>
+      <c r="AC13" s="61"/>
     </row>
-    <row r="14" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="16">
         <v>0</v>
       </c>
@@ -21320,9 +22854,9 @@
       <c r="Z14" s="4"/>
       <c r="AA14" s="39"/>
       <c r="AB14" s="39"/>
-      <c r="AC14" s="64"/>
+      <c r="AC14" s="61"/>
     </row>
-    <row r="15" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="16">
         <v>5</v>
       </c>
@@ -21367,7 +22901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:29" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="16">
         <v>4</v>
       </c>
@@ -21378,7 +22912,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="16">
         <v>3</v>
       </c>
@@ -21392,7 +22926,7 @@
       <c r="I17" s="39"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="16">
         <v>2</v>
       </c>
@@ -21419,7 +22953,7 @@
       <c r="AA18" s="39"/>
       <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="16">
         <v>1</v>
       </c>
@@ -21446,7 +22980,7 @@
       <c r="AA19" s="39"/>
       <c r="AB19" s="39"/>
     </row>
-    <row r="20" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="16">
         <v>0</v>
       </c>
@@ -21472,7 +23006,7 @@
       <c r="AA20" s="39"/>
       <c r="AB20" s="39"/>
     </row>
-    <row r="21" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
       <c r="D21" s="38">
         <v>0</v>
@@ -21499,7 +23033,7 @@
       <c r="S21" s="39"/>
       <c r="T21" s="39"/>
       <c r="U21" s="39"/>
-      <c r="V21" s="63"/>
+      <c r="V21" s="60"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -21507,7 +23041,7 @@
       <c r="AA21" s="39"/>
       <c r="AB21" s="39"/>
     </row>
-    <row r="22" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="16">
         <v>6</v>
       </c>
@@ -21521,7 +23055,7 @@
       <c r="AA22" s="39"/>
       <c r="AB22" s="39"/>
     </row>
-    <row r="23" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q23" s="16">
         <v>5</v>
       </c>
@@ -21537,7 +23071,7 @@
       <c r="AA23" s="39"/>
       <c r="AB23" s="39"/>
     </row>
-    <row r="24" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q24" s="16">
         <v>4</v>
       </c>
@@ -21553,7 +23087,7 @@
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
     </row>
-    <row r="25" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q25" s="16">
         <v>3</v>
       </c>
@@ -21565,10 +23099,10 @@
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="39"/>
-      <c r="AA25" s="63"/>
+      <c r="AA25" s="60"/>
       <c r="AB25" s="39"/>
     </row>
-    <row r="26" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q26" s="16">
         <v>2</v>
       </c>
@@ -21582,7 +23116,7 @@
       <c r="Z26" s="39"/>
       <c r="AB26" s="39"/>
     </row>
-    <row r="27" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q27" s="16">
         <v>1</v>
       </c>
@@ -21598,7 +23132,7 @@
       <c r="AA27" s="39"/>
       <c r="AB27" s="39"/>
     </row>
-    <row r="28" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="16">
         <v>0</v>
       </c>
@@ -21614,7 +23148,7 @@
       <c r="AA28" s="39"/>
       <c r="AB28" s="39"/>
     </row>
-    <row r="29" spans="3:28" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q29" s="16"/>
       <c r="R29" s="41">
         <v>0</v>
